--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_5_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_5_28.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1418723.52510362</v>
+        <v>1425830.489111093</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14661612.74404855</v>
+        <v>14661612.74404854</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5988278.901692687</v>
+        <v>5988278.901692688</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>53.51252900994975</v>
       </c>
       <c r="G2" t="n">
+        <v>53.51252900994975</v>
+      </c>
+      <c r="H2" t="n">
         <v>35.18454619735122</v>
       </c>
-      <c r="H2" t="n">
-        <v>53.51252900994975</v>
-      </c>
       <c r="I2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -759,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -786,19 +786,19 @@
         <v>53.51252900994975</v>
       </c>
       <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>47.13383555196375</v>
       </c>
       <c r="V3" t="n">
         <v>53.51252900994975</v>
       </c>
       <c r="W3" t="n">
-        <v>46.38724422570589</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -832,16 +832,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>26.16190956546853</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>3.892417739585685</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
-        <v>190.1066023865956</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>196.9826481283071</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>241.0142888776591</v>
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>45.28887413297245</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1035,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>45.28887413297245</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1069,16 +1069,16 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>39.82778746869526</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>198.0343424855785</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1142,64 +1142,64 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>196.9826481283071</v>
       </c>
       <c r="G8" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1260,19 +1260,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>160.4442220756123</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>204.7452777895381</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1373,16 +1373,16 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1427,16 +1427,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1452,13 +1452,13 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>21.0507685937734</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>137.3435171632106</v>
@@ -1494,13 +1494,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>32.11356177151217</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1546,13 +1546,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1567,13 +1567,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1683,19 +1683,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>137.3435171632106</v>
@@ -1731,22 +1731,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>63.1272779959173</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>48.62932063282399</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1783,13 +1783,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1804,13 +1804,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1853,64 +1853,64 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>62.4162677022923</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G17" t="n">
+      <c r="X17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H17" t="n">
+      <c r="Y17" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I17" t="n">
-        <v>200.3360962888296</v>
-      </c>
-      <c r="J17" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1980,13 +1980,13 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>146.1932996118735</v>
       </c>
       <c r="W18" t="n">
-        <v>29.8169472598111</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2041,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -2053,10 +2053,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U19" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2078,11 +2078,11 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C20" t="n">
-        <v>21.18375537072436</v>
-      </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
@@ -2090,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="X20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2169,16 +2169,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>23.28159757912396</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,25 +2205,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>90.50278177497621</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2296,13 +2296,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2324,58 +2324,58 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2394,13 +2394,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>71.31516562868923</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2409,13 +2409,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>52.89562800289951</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2448,10 +2448,10 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2515,19 +2515,19 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T25" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2555,7 +2555,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2597,28 +2597,28 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>9.73723617201896</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="X26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2631,13 +2631,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>63.88882306452232</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2682,16 +2682,16 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>174.6530184069498</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
@@ -2700,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2713,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2731,10 +2731,10 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>39.82778746869524</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2752,10 +2752,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -2792,14 +2792,14 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
@@ -2807,7 +2807,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>1.809496073036188</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -2837,28 +2837,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>33.80371536444976</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2871,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>135.4141600157168</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2880,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2919,7 +2919,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>17.37254956828078</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -2928,13 +2928,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2959,10 +2959,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3029,73 +3029,73 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D32" t="n">
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="V32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E32" t="n">
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
       <c r="Y32" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3108,10 +3108,10 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>20.02544070929549</v>
+        <v>60.09118670082915</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3165,7 +3165,7 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3244,7 +3244,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3272,19 +3272,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>33.80371536444981</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3326,10 +3326,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3342,31 +3342,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>21.0507685937734</v>
+        <v>45.16993277272628</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,13 +3390,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3442,40 +3442,40 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3512,58 +3512,58 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="U38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G38" t="n">
-        <v>23.81301614990503</v>
-      </c>
-      <c r="H38" t="n">
+      <c r="V38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I38" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3579,16 +3579,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>162.4502786393444</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,25 +3627,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>90.90725545139051</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3667,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3743,25 +3743,25 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>72.47049842454874</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3782,22 +3782,22 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>3.265316057196634</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3834,13 +3834,13 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>34.66067414728059</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>35.40726547353833</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3910,40 +3910,40 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3974,13 +3974,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>202.2946864288972</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3989,10 +3989,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="H44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4019,13 +4019,13 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4037,13 +4037,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4056,22 +4056,22 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>87.86537997303478</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>47.26241467853677</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4116,10 +4116,10 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>214.050116039799</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="C2" t="n">
-        <v>214.050116039799</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="D2" t="n">
-        <v>214.050116039799</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="E2" t="n">
-        <v>214.050116039799</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="F2" t="n">
-        <v>159.9970564337892</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="G2" t="n">
-        <v>124.457110779899</v>
+        <v>51.89093722176946</v>
       </c>
       <c r="H2" t="n">
-        <v>70.40405117388919</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="I2" t="n">
         <v>16.35099156787933</v>
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.035134973581694</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="C3" t="n">
-        <v>5.035134973581694</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="D3" t="n">
-        <v>5.035134973581694</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="E3" t="n">
-        <v>5.035134973581694</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="F3" t="n">
-        <v>5.035134973581694</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="G3" t="n">
-        <v>5.035134973581694</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="H3" t="n">
-        <v>5.035134973581694</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I3" t="n">
-        <v>5.035134973581694</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J3" t="n">
         <v>4.28100232079598</v>
       </c>
       <c r="K3" t="n">
+        <v>4.28100232079598</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4.28100232079598</v>
+      </c>
+      <c r="M3" t="n">
         <v>57.25840604064623</v>
       </c>
-      <c r="L3" t="n">
-        <v>110.2358097604965</v>
-      </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
+        <v>108.0953086000985</v>
+      </c>
+      <c r="O3" t="n">
+        <v>108.0953086000985</v>
+      </c>
+      <c r="P3" t="n">
         <v>161.0727123199487</v>
-      </c>
-      <c r="N3" t="n">
-        <v>214.050116039799</v>
-      </c>
-      <c r="O3" t="n">
-        <v>214.050116039799</v>
-      </c>
-      <c r="P3" t="n">
-        <v>214.050116039799</v>
       </c>
       <c r="Q3" t="n">
         <v>214.050116039799</v>
@@ -4434,25 +4434,25 @@
         <v>159.9970564337892</v>
       </c>
       <c r="S3" t="n">
-        <v>105.9439968277793</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="T3" t="n">
         <v>105.9439968277793</v>
       </c>
       <c r="U3" t="n">
-        <v>105.9439968277793</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="V3" t="n">
-        <v>51.89093722176946</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="W3" t="n">
-        <v>5.035134973581694</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="X3" t="n">
-        <v>5.035134973581694</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="Y3" t="n">
-        <v>5.035134973581694</v>
+        <v>4.28100232079598</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>26.77543850855644</v>
+        <v>84.76023320505688</v>
       </c>
       <c r="C4" t="n">
-        <v>26.77543850855644</v>
+        <v>84.76023320505688</v>
       </c>
       <c r="D4" t="n">
-        <v>26.77543850855644</v>
+        <v>84.76023320505688</v>
       </c>
       <c r="E4" t="n">
-        <v>26.77543850855644</v>
+        <v>84.76023320505688</v>
       </c>
       <c r="F4" t="n">
-        <v>26.77543850855644</v>
+        <v>84.76023320505688</v>
       </c>
       <c r="G4" t="n">
-        <v>26.77543850855644</v>
+        <v>84.76023320505688</v>
       </c>
       <c r="H4" t="n">
-        <v>26.77543850855644</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="I4" t="n">
-        <v>26.77543850855644</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="J4" t="n">
-        <v>26.77543850855644</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K4" t="n">
         <v>4.28100232079598</v>
@@ -4519,19 +4519,19 @@
         <v>84.76023320505688</v>
       </c>
       <c r="U4" t="n">
-        <v>80.82849811456629</v>
+        <v>84.76023320505688</v>
       </c>
       <c r="V4" t="n">
-        <v>80.82849811456629</v>
+        <v>84.76023320505688</v>
       </c>
       <c r="W4" t="n">
-        <v>80.82849811456629</v>
+        <v>84.76023320505688</v>
       </c>
       <c r="X4" t="n">
-        <v>26.77543850855644</v>
+        <v>84.76023320505688</v>
       </c>
       <c r="Y4" t="n">
-        <v>26.77543850855644</v>
+        <v>84.76023320505688</v>
       </c>
     </row>
     <row r="5">
@@ -4544,13 +4544,13 @@
         <v>477.1596022224361</v>
       </c>
       <c r="C5" t="n">
-        <v>285.1327311248648</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D5" t="n">
-        <v>41.68395448076474</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E5" t="n">
-        <v>41.68395448076474</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F5" t="n">
         <v>34.73845373156126</v>
@@ -4607,10 +4607,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X5" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="Y5" t="n">
         <v>720.6083788665362</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="6">
@@ -4656,13 +4656,13 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>656.0584510084244</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4683,13 +4683,13 @@
         <v>862.8876260635219</v>
       </c>
       <c r="W6" t="n">
-        <v>862.8876260635219</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="X6" t="n">
-        <v>862.8876260635219</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="Y6" t="n">
-        <v>862.8876260635219</v>
+        <v>817.1412885554689</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H7" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I7" t="n">
-        <v>136.0777814360265</v>
+        <v>113.583345248266</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4741,34 +4741,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>285.1327311248648</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C8" t="n">
-        <v>285.1327311248648</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D8" t="n">
-        <v>285.1327311248648</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E8" t="n">
-        <v>285.1327311248648</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F8" t="n">
-        <v>278.1872303756613</v>
+        <v>34.73845373156126</v>
       </c>
       <c r="G8" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4823,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T8" t="n">
-        <v>728.6161971483371</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U8" t="n">
-        <v>728.6161971483371</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V8" t="n">
-        <v>728.6161971483371</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W8" t="n">
-        <v>728.6161971483371</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X8" t="n">
-        <v>485.167420504237</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y8" t="n">
-        <v>485.167420504237</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4890,16 +4890,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>417.4543050195419</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N9" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4908,25 +4908,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>700.8227552800752</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>498.6361606388412</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U9" t="n">
-        <v>498.6361606388412</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="V9" t="n">
-        <v>263.4840524070985</v>
+        <v>226.0945550188371</v>
       </c>
       <c r="W9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="10">
@@ -4939,22 +4939,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
         <v>19.28114311021272</v>
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C11" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D11" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E11" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F11" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G11" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H11" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I11" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5075,16 +5075,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V11" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W11" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X11" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y11" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="12">
@@ -5094,16 +5094,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>521.6723209211027</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="C12" t="n">
-        <v>521.6723209211027</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="D12" t="n">
-        <v>521.6723209211027</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E12" t="n">
-        <v>362.4348659156472</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F12" t="n">
         <v>362.4348659156472</v>
@@ -5124,46 +5124,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>374.6018090363993</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M12" t="n">
-        <v>613.2059550252818</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N12" t="n">
-        <v>781.4136778972854</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O12" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P12" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>931.6192143272906</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S12" t="n">
-        <v>931.6192143272906</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T12" t="n">
-        <v>729.4326196860566</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U12" t="n">
-        <v>729.4326196860566</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V12" t="n">
-        <v>729.4326196860566</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W12" t="n">
-        <v>729.4326196860566</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X12" t="n">
-        <v>729.4326196860566</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y12" t="n">
-        <v>521.6723209211027</v>
+        <v>689.4702815141908</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
         <v>19.28114311021272</v>
@@ -5215,34 +5215,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q13" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5331,16 +5331,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>423.5187596043535</v>
+        <v>544.5346979575927</v>
       </c>
       <c r="C15" t="n">
-        <v>249.0657303232264</v>
+        <v>544.5346979575927</v>
       </c>
       <c r="D15" t="n">
-        <v>249.0657303232264</v>
+        <v>395.6002882963414</v>
       </c>
       <c r="E15" t="n">
-        <v>249.0657303232264</v>
+        <v>395.6002882963414</v>
       </c>
       <c r="F15" t="n">
         <v>249.0657303232264</v>
@@ -5361,13 +5361,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>383.2428491569326</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N15" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O15" t="n">
         <v>712.019119383956</v>
@@ -5379,28 +5379,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T15" t="n">
-        <v>487.2836868729568</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U15" t="n">
-        <v>423.5187596043535</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V15" t="n">
-        <v>423.5187596043535</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W15" t="n">
-        <v>423.5187596043535</v>
+        <v>712.7500349776608</v>
       </c>
       <c r="X15" t="n">
-        <v>423.5187596043535</v>
+        <v>712.7500349776608</v>
       </c>
       <c r="Y15" t="n">
-        <v>423.5187596043535</v>
+        <v>712.7500349776608</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I16" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J16" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5452,34 +5452,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q16" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="S16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="T16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="E17" t="n">
-        <v>964.0571555106362</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="F17" t="n">
-        <v>720.6083788665362</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="G17" t="n">
-        <v>477.1596022224361</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="H17" t="n">
-        <v>233.7108255783361</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5537,28 +5537,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>82.32787816303323</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>726.0875267598396</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="C18" t="n">
-        <v>726.0875267598396</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="D18" t="n">
-        <v>577.1531170985884</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="E18" t="n">
-        <v>417.9156620931329</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F18" t="n">
-        <v>271.3811041200179</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G18" t="n">
-        <v>132.6502787026334</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I18" t="n">
         <v>19.28114311021272</v>
@@ -5598,13 +5598,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M18" t="n">
-        <v>613.2059550252818</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N18" t="n">
-        <v>781.4136778972854</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
         <v>781.4136778972854</v>
@@ -5628,16 +5628,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="W18" t="n">
-        <v>933.9390269653725</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="X18" t="n">
-        <v>726.0875267598396</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="Y18" t="n">
-        <v>726.0875267598396</v>
+        <v>816.3871559026832</v>
       </c>
     </row>
     <row r="19">
@@ -5689,19 +5689,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
         <v>19.28114311021272</v>
@@ -5726,16 +5726,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>40.6788758079141</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
         <v>19.28114311021272</v>
@@ -5777,25 +5777,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>527.5764290961142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>284.1276524520142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>284.1276524520142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W20" t="n">
-        <v>284.1276524520142</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X20" t="n">
-        <v>284.1276524520142</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y20" t="n">
-        <v>284.1276524520142</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>165.8157010833278</v>
+        <v>246.4666730769152</v>
       </c>
       <c r="C21" t="n">
-        <v>165.8157010833278</v>
+        <v>246.4666730769152</v>
       </c>
       <c r="D21" t="n">
-        <v>165.8157010833278</v>
+        <v>246.4666730769152</v>
       </c>
       <c r="E21" t="n">
-        <v>165.8157010833278</v>
+        <v>246.4666730769152</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>246.4666730769152</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I21" t="n">
         <v>19.28114311021272</v>
@@ -5838,43 +5838,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>872.6402042227814</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>872.6402042227814</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T21" t="n">
-        <v>872.6402042227814</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U21" t="n">
-        <v>644.4165859591706</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V21" t="n">
-        <v>409.2644777274278</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="W21" t="n">
-        <v>165.8157010833278</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="X21" t="n">
-        <v>165.8157010833278</v>
+        <v>246.4666730769152</v>
       </c>
       <c r="Y21" t="n">
-        <v>165.8157010833278</v>
+        <v>246.4666730769152</v>
       </c>
     </row>
     <row r="22">
@@ -5944,10 +5944,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
         <v>19.28114311021272</v>
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C23" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D23" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E23" t="n">
         <v>506.1786963984129</v>
       </c>
       <c r="F23" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6017,22 +6017,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U23" t="n">
         <v>749.627473042513</v>
       </c>
       <c r="V23" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W23" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X23" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y23" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>456.0377176450116</v>
+        <v>385.8949250843803</v>
       </c>
       <c r="C24" t="n">
-        <v>281.5846883638847</v>
+        <v>211.4418958032533</v>
       </c>
       <c r="D24" t="n">
-        <v>132.6502787026334</v>
+        <v>211.4418958032533</v>
       </c>
       <c r="E24" t="n">
-        <v>132.6502787026334</v>
+        <v>211.4418958032533</v>
       </c>
       <c r="F24" t="n">
-        <v>132.6502787026334</v>
+        <v>211.4418958032533</v>
       </c>
       <c r="G24" t="n">
-        <v>132.6502787026334</v>
+        <v>72.71107038586879</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>72.71107038586879</v>
       </c>
       <c r="I24" t="n">
         <v>19.28114311021272</v>
@@ -6072,19 +6072,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M24" t="n">
-        <v>487.8483949674443</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N24" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6096,22 +6096,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U24" t="n">
-        <v>735.8335372470253</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V24" t="n">
-        <v>735.8335372470253</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W24" t="n">
-        <v>735.8335372470253</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X24" t="n">
-        <v>735.8335372470253</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="Y24" t="n">
-        <v>528.0732384820715</v>
+        <v>554.1102621044483</v>
       </c>
     </row>
     <row r="25">
@@ -6163,16 +6163,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
         <v>19.28114311021272</v>
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>475.3318284112885</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C26" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6245,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>944.1299480494607</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>718.7806050553886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>718.7806050553886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>475.3318284112885</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W26" t="n">
-        <v>475.3318284112885</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X26" t="n">
-        <v>475.3318284112885</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y26" t="n">
-        <v>475.3318284112885</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>83.81530782185143</v>
+        <v>168.215552771464</v>
       </c>
       <c r="C27" t="n">
-        <v>83.81530782185143</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D27" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
         <v>19.28114311021272</v>
@@ -6306,19 +6306,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N27" t="n">
-        <v>613.2059550252818</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
         <v>964.0571555106362</v>
@@ -6330,25 +6330,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>790.6398109613051</v>
+        <v>787.6399652005859</v>
       </c>
       <c r="U27" t="n">
-        <v>562.4161926976942</v>
+        <v>787.6399652005859</v>
       </c>
       <c r="V27" t="n">
-        <v>327.2640844659515</v>
+        <v>787.6399652005859</v>
       </c>
       <c r="W27" t="n">
-        <v>83.81530782185143</v>
+        <v>544.1911885564859</v>
       </c>
       <c r="X27" t="n">
-        <v>83.81530782185143</v>
+        <v>544.1911885564859</v>
       </c>
       <c r="Y27" t="n">
-        <v>83.81530782185143</v>
+        <v>336.430889791532</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>64.03213664411894</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>64.03213664411894</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>64.03213664411894</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S28" t="n">
-        <v>64.03213664411894</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T28" t="n">
-        <v>64.03213664411894</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U28" t="n">
-        <v>64.03213664411894</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V28" t="n">
-        <v>64.03213664411894</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W28" t="n">
-        <v>64.03213664411894</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X28" t="n">
-        <v>64.03213664411894</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y28" t="n">
-        <v>64.03213664411894</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>477.1596022224361</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C29" t="n">
-        <v>233.7108255783361</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D29" t="n">
-        <v>233.7108255783361</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E29" t="n">
-        <v>233.7108255783361</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F29" t="n">
-        <v>233.7108255783361</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G29" t="n">
-        <v>233.7108255783361</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H29" t="n">
         <v>231.8830517671884</v>
@@ -6485,28 +6485,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>929.9119884758385</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="U29" t="n">
-        <v>720.6083788665362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="V29" t="n">
-        <v>720.6083788665362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="W29" t="n">
-        <v>720.6083788665362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="X29" t="n">
-        <v>720.6083788665362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y29" t="n">
-        <v>477.1596022224361</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="30">
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>156.0631229240681</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="C30" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F30" t="n">
         <v>19.28114311021272</v>
@@ -6543,22 +6543,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M30" t="n">
-        <v>257.8852890990952</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N30" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6567,25 +6567,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>862.8876260635219</v>
+        <v>845.3395961965716</v>
       </c>
       <c r="T30" t="n">
-        <v>862.8876260635219</v>
+        <v>845.3395961965716</v>
       </c>
       <c r="U30" t="n">
-        <v>634.6640077999109</v>
+        <v>617.1159779329607</v>
       </c>
       <c r="V30" t="n">
-        <v>399.5118995681682</v>
+        <v>617.1159779329607</v>
       </c>
       <c r="W30" t="n">
-        <v>156.0631229240681</v>
+        <v>373.6672012888606</v>
       </c>
       <c r="X30" t="n">
-        <v>156.0631229240681</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="Y30" t="n">
-        <v>156.0631229240681</v>
+        <v>165.8157010833278</v>
       </c>
     </row>
     <row r="31">
@@ -6607,7 +6607,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G31" t="n">
         <v>829.5248650203655</v>
@@ -6674,16 +6674,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
         <v>19.28114311021272</v>
@@ -6731,19 +6731,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W32" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X32" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y32" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="33">
@@ -6753,10 +6753,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>862.8876260635219</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="C33" t="n">
-        <v>688.4345967823949</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="D33" t="n">
         <v>668.2068788942177</v>
@@ -6786,10 +6786,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
+        <v>374.6018090363993</v>
+      </c>
+      <c r="N33" t="n">
         <v>542.809531908403</v>
-      </c>
-      <c r="N33" t="n">
-        <v>781.4136778972854</v>
       </c>
       <c r="O33" t="n">
         <v>781.4136778972854</v>
@@ -6801,28 +6801,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V33" t="n">
-        <v>862.8876260635219</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W33" t="n">
-        <v>862.8876260635219</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="X33" t="n">
-        <v>862.8876260635219</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="Y33" t="n">
-        <v>862.8876260635219</v>
+        <v>728.9050472788936</v>
       </c>
     </row>
     <row r="34">
@@ -6880,16 +6880,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
         <v>19.28114311021272</v>
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>477.1596022224361</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="C35" t="n">
-        <v>477.1596022224361</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="D35" t="n">
-        <v>477.1596022224361</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="E35" t="n">
-        <v>262.7299197543128</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I35" t="n">
         <v>19.28114311021272</v>
@@ -6962,25 +6962,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V35" t="n">
-        <v>720.6083788665362</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="W35" t="n">
-        <v>477.1596022224361</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="X35" t="n">
-        <v>477.1596022224361</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="Y35" t="n">
-        <v>477.1596022224361</v>
+        <v>266.0282188019862</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>689.4702815141908</v>
+        <v>385.8949250843803</v>
       </c>
       <c r="C36" t="n">
-        <v>689.4702815141908</v>
+        <v>211.4418958032533</v>
       </c>
       <c r="D36" t="n">
-        <v>668.2068788942177</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="E36" t="n">
-        <v>508.9694238887622</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F36" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7023,10 +7023,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N36" t="n">
-        <v>781.4136778972854</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
         <v>781.4136778972854</v>
@@ -7038,28 +7038,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>689.4702815141908</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U36" t="n">
-        <v>689.4702815141908</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V36" t="n">
-        <v>689.4702815141908</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W36" t="n">
-        <v>689.4702815141908</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X36" t="n">
-        <v>689.4702815141908</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="Y36" t="n">
-        <v>689.4702815141908</v>
+        <v>554.1102621044483</v>
       </c>
     </row>
     <row r="37">
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
         <v>19.28114311021272</v>
@@ -7123,22 +7123,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>742.8341567219593</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C38" t="n">
-        <v>742.8341567219593</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D38" t="n">
-        <v>742.8341567219593</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E38" t="n">
-        <v>742.8341567219593</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
-        <v>499.3853800778592</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7193,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>742.8341567219593</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U38" t="n">
-        <v>742.8341567219593</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V38" t="n">
-        <v>742.8341567219593</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W38" t="n">
-        <v>742.8341567219593</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X38" t="n">
-        <v>742.8341567219593</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y38" t="n">
-        <v>742.8341567219593</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>592.2056662008901</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>417.752636919763</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>268.8182272585117</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I39" t="n">
         <v>19.28114311021272</v>
@@ -7254,49 +7254,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M39" t="n">
-        <v>613.2059550252818</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N39" t="n">
-        <v>781.4136778972854</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>872.2316449536761</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>872.2316449536761</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>670.0450503124422</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>670.0450503124422</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V39" t="n">
-        <v>434.8929420806995</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W39" t="n">
-        <v>434.8929420806995</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X39" t="n">
-        <v>227.0414418751666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y39" t="n">
-        <v>19.28114311021272</v>
+        <v>756.2968567456824</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>348.0024326625565</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C41" t="n">
-        <v>348.0024326625565</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D41" t="n">
-        <v>104.5536560184564</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E41" t="n">
-        <v>104.5536560184564</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F41" t="n">
-        <v>104.5536560184564</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G41" t="n">
-        <v>104.5536560184564</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
-        <v>104.5536560184564</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7430,31 +7430,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>591.4512093066566</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T41" t="n">
-        <v>591.4512093066566</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U41" t="n">
-        <v>591.4512093066566</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V41" t="n">
-        <v>348.0024326625565</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W41" t="n">
-        <v>348.0024326625565</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X41" t="n">
-        <v>348.0024326625565</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y41" t="n">
-        <v>348.0024326625565</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7464,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C42" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D42" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E42" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
@@ -7500,40 +7500,40 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N42" t="n">
-        <v>781.4136778972854</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O42" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P42" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>964.0571555106362</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="T42" t="n">
-        <v>761.8705608694022</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U42" t="n">
-        <v>533.6469426057913</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V42" t="n">
-        <v>298.4948343740486</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W42" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X42" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y42" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="43">
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
         <v>19.28114311021272</v>
@@ -7591,28 +7591,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>262.7299197543128</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="C44" t="n">
-        <v>262.7299197543128</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="D44" t="n">
-        <v>262.7299197543128</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="E44" t="n">
-        <v>262.7299197543128</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="F44" t="n">
-        <v>262.7299197543128</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="G44" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
         <v>19.28114311021272</v>
@@ -7667,31 +7667,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S44" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T44" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U44" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V44" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W44" t="n">
-        <v>710.516763498309</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="X44" t="n">
-        <v>710.516763498309</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="Y44" t="n">
-        <v>467.067986854209</v>
+        <v>752.9257720901863</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>756.2056553051034</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="C45" t="n">
-        <v>756.2056553051034</v>
+        <v>444.9858201382948</v>
       </c>
       <c r="D45" t="n">
-        <v>667.4527462414319</v>
+        <v>296.0514104770435</v>
       </c>
       <c r="E45" t="n">
-        <v>508.2152912359765</v>
+        <v>296.0514104770435</v>
       </c>
       <c r="F45" t="n">
-        <v>361.6807332628614</v>
+        <v>296.0514104770435</v>
       </c>
       <c r="G45" t="n">
-        <v>222.9499078454769</v>
+        <v>157.320585059659</v>
       </c>
       <c r="H45" t="n">
         <v>109.5807722530562</v>
@@ -7731,13 +7731,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M45" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N45" t="n">
-        <v>781.4136778972854</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O45" t="n">
         <v>781.4136778972854</v>
@@ -7749,28 +7749,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W45" t="n">
-        <v>964.0571555106362</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X45" t="n">
-        <v>756.2056553051034</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="Y45" t="n">
-        <v>756.2056553051034</v>
+        <v>619.4388494194218</v>
       </c>
     </row>
     <row r="46">
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C46" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D46" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E46" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F46" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G46" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H46" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="I46" t="n">
         <v>829.5248650203655</v>
@@ -7831,25 +7831,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S46" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T46" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U46" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V46" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W46" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X46" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y46" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
   </sheetData>
@@ -8058,25 +8058,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>191.3539679843088</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>192.0669087898239</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>193.4844405477277</v>
+        <v>195.6465629319681</v>
       </c>
       <c r="N3" t="n">
-        <v>184.8542410932831</v>
+        <v>182.6921187090427</v>
       </c>
       <c r="O3" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>187.48693642428</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>193.4943030959713</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,7 +8216,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8304,16 +8304,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>174.6270615612551</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>247.3552705420797</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8453,7 +8453,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8538,19 +8538,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>185.4193833999402</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8772,22 +8772,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>173.111405903722</v>
       </c>
       <c r="M12" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9009,16 +9009,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>222.4246658592332</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O15" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9246,16 +9246,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>301.2485028631349</v>
+        <v>292.5201795090609</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9486,19 +9486,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>241.9453110519923</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9720,7 +9720,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M24" t="n">
         <v>383.1483227996774</v>
@@ -9729,13 +9729,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>312.5053919605859</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,22 +9954,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>312.5030352242461</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10191,13 +10191,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10434,13 +10434,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>312.04082470182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10671,13 +10671,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N36" t="n">
-        <v>301.2485028631349</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10902,25 +10902,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N39" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11148,16 +11148,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11379,16 +11379,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -23261,16 +23261,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>214.9666412263055</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
@@ -23279,7 +23279,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23315,16 +23315,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23340,13 +23340,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>126.3942969708654</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -23382,13 +23382,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>68.04427238113095</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
         <v>225.9413820809748</v>
@@ -23403,7 +23403,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23434,13 +23434,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23455,13 +23455,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23571,19 +23571,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -23619,22 +23619,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>162.8141040850575</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>203.0656625280956</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23671,13 +23671,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23692,13 +23692,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23741,19 +23741,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>10.13979328157632</v>
+        <v>148.0596218681136</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23777,7 +23777,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
@@ -23792,13 +23792,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="18">
@@ -23829,7 +23829,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -23868,13 +23868,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>86.60728753755174</v>
       </c>
       <c r="W18" t="n">
-        <v>221.8780359011085</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23929,7 +23929,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
         <v>86.16204325169439</v>
@@ -23941,10 +23941,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U19" t="n">
-        <v>155.8535025062293</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23966,10 +23966,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>344.0891364002832</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23978,7 +23978,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
         <v>415.302737515135</v>
@@ -24017,22 +24017,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24057,16 +24057,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>114.0619195840867</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -24093,25 +24093,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>9.655052377666919</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24184,13 +24184,13 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24212,16 +24212,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24257,13 +24257,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U23" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24282,13 +24282,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>95.21801802117811</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -24297,13 +24297,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>36.50100484851557</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -24336,10 +24336,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24403,19 +24403,19 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T25" t="n">
-        <v>183.6421058297144</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24443,7 +24443,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24461,7 +24461,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24485,28 +24485,28 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>199.2828334142264</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24519,13 +24519,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24534,7 +24534,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>73.45469409868832</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
@@ -24570,16 +24570,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>25.51171028787184</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
@@ -24588,7 +24588,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24601,7 +24601,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>122.9433375000607</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24619,10 +24619,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I28" t="n">
-        <v>155.4504749272583</v>
+        <v>115.622687458563</v>
       </c>
       <c r="J28" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>22.26949182588285</v>
@@ -24640,10 +24640,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
         <v>177.2933913771695</v>
@@ -24680,13 +24680,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -24695,7 +24695,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>337.6653060427309</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24725,28 +24725,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>116.0654025766999</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24759,7 +24759,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>37.29433897259889</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24768,7 +24768,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
@@ -24807,7 +24807,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>154.310621535557</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
@@ -24816,13 +24816,13 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24847,10 +24847,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>12.23408043756325</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309076</v>
       </c>
       <c r="H31" t="n">
         <v>162.2271725074396</v>
@@ -24917,16 +24917,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
@@ -24971,19 +24971,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y32" t="n">
-        <v>173.9525530126116</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24996,10 +24996,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>127.4196248553433</v>
+        <v>87.3538788638096</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -25041,7 +25041,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
@@ -25053,7 +25053,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -25120,7 +25120,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25132,7 +25132,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25160,19 +25160,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>169.6449844288197</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>339.4748021157671</v>
+        <v>305.6710867513173</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -25202,7 +25202,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>223.0958495641314</v>
@@ -25214,10 +25214,10 @@
         <v>86.73796959247585</v>
       </c>
       <c r="W35" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25230,31 +25230,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>126.3942969708654</v>
+        <v>102.2751327919125</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,13 +25278,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
@@ -25299,7 +25299,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25330,7 +25330,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I37" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J37" t="n">
         <v>93.35918011667277</v>
@@ -25363,7 +25363,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U37" t="n">
         <v>286.3190293564909</v>
@@ -25400,16 +25400,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>391.48972136523</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -25433,25 +25433,25 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -25467,16 +25467,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>4.08290501052295</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25488,7 +25488,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -25515,25 +25515,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>9.250578701252621</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25555,7 +25555,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120118</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25597,7 +25597,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
         <v>227.9455894282815</v>
@@ -25631,25 +25631,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>138.0053911458572</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25670,22 +25670,22 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>219.8305335069347</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25722,13 +25722,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>77.57477008921587</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25752,7 +25752,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>64.7505686791048</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
@@ -25798,7 +25798,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H43" t="n">
         <v>162.2271725074396</v>
@@ -25831,7 +25831,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25862,13 +25862,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>180.4391552345834</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25877,10 +25877,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>412.0374214579384</v>
       </c>
       <c r="H44" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25907,13 +25907,13 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
@@ -25925,13 +25925,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25944,22 +25944,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>59.57968559160398</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>64.97302955795969</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25989,7 +25989,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -26004,10 +26004,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26041,7 +26041,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I46" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189029</v>
       </c>
       <c r="J46" t="n">
         <v>93.35918011667277</v>
@@ -26071,7 +26071,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
-        <v>90.82963045160426</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T46" t="n">
         <v>227.9455894282815</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>390775.3051739903</v>
+        <v>390775.3051739904</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>390775.3051739903</v>
+        <v>390775.3051739904</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>390775.3051739903</v>
+        <v>390775.3051739904</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>390775.3051739903</v>
+        <v>390775.3051739904</v>
       </c>
     </row>
     <row r="14">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049984</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049982</v>
+        <v>574729.2389049981</v>
       </c>
       <c r="D2" t="n">
         <v>574729.2389049983</v>
       </c>
       <c r="E2" t="n">
-        <v>232624.9415438654</v>
+        <v>232624.9415438653</v>
       </c>
       <c r="F2" t="n">
         <v>232624.9415438653</v>
@@ -26329,10 +26329,10 @@
         <v>232624.9415438654</v>
       </c>
       <c r="H2" t="n">
-        <v>232624.9415438654</v>
+        <v>232624.9415438653</v>
       </c>
       <c r="I2" t="n">
-        <v>232624.9415438654</v>
+        <v>232624.9415438653</v>
       </c>
       <c r="J2" t="n">
         <v>232624.9415438654</v>
@@ -26341,19 +26341,19 @@
         <v>232624.9415438654</v>
       </c>
       <c r="L2" t="n">
-        <v>232624.9415438654</v>
+        <v>232624.9415438653</v>
       </c>
       <c r="M2" t="n">
-        <v>232624.9415438654</v>
+        <v>232624.9415438653</v>
       </c>
       <c r="N2" t="n">
-        <v>232624.9415438654</v>
+        <v>232624.9415438653</v>
       </c>
       <c r="O2" t="n">
         <v>232624.9415438654</v>
       </c>
       <c r="P2" t="n">
-        <v>232624.9415438654</v>
+        <v>232624.9415438653</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17933.27925940139</v>
+        <v>17933.27925940137</v>
       </c>
       <c r="C3" t="n">
         <v>60576.32218666811</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>360814.6373507841</v>
+        <v>360174.3645198887</v>
       </c>
       <c r="C4" t="n">
-        <v>321840.7818943749</v>
+        <v>320962.9529903556</v>
       </c>
       <c r="D4" t="n">
-        <v>321840.7818943749</v>
+        <v>320962.9529903556</v>
       </c>
       <c r="E4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="F4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589614</v>
       </c>
       <c r="G4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589614</v>
       </c>
       <c r="H4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="I4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="J4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="K4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="L4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="M4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="N4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="O4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589614</v>
       </c>
       <c r="P4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589615</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>159100.1605310081</v>
+        <v>159740.4333619034</v>
       </c>
       <c r="C6" t="n">
-        <v>144030.8660601935</v>
+        <v>144908.6949642127</v>
       </c>
       <c r="D6" t="n">
-        <v>204607.1882468617</v>
+        <v>205485.0171508811</v>
       </c>
       <c r="E6" t="n">
-        <v>175076.0185201882</v>
+        <v>175953.8474242075</v>
       </c>
       <c r="F6" t="n">
-        <v>175076.0185201882</v>
+        <v>175953.8474242075</v>
       </c>
       <c r="G6" t="n">
-        <v>175076.0185201883</v>
+        <v>175953.8474242076</v>
       </c>
       <c r="H6" t="n">
-        <v>175076.0185201882</v>
+        <v>175953.8474242075</v>
       </c>
       <c r="I6" t="n">
-        <v>175076.0185201882</v>
+        <v>175953.8474242075</v>
       </c>
       <c r="J6" t="n">
-        <v>161074.7863799089</v>
+        <v>161952.6152839283</v>
       </c>
       <c r="K6" t="n">
-        <v>126819.0655865556</v>
+        <v>127696.894490575</v>
       </c>
       <c r="L6" t="n">
-        <v>175076.0185201882</v>
+        <v>175953.8474242075</v>
       </c>
       <c r="M6" t="n">
-        <v>175076.0185201882</v>
+        <v>175953.8474242075</v>
       </c>
       <c r="N6" t="n">
-        <v>175076.0185201882</v>
+        <v>175953.8474242075</v>
       </c>
       <c r="O6" t="n">
-        <v>175076.0185201882</v>
+        <v>175953.8474242075</v>
       </c>
       <c r="P6" t="n">
-        <v>175076.0185201883</v>
+        <v>175953.8474242075</v>
       </c>
     </row>
   </sheetData>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>329.2213126535308</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27391,13 +27391,13 @@
         <v>353.3635167317617</v>
       </c>
       <c r="G2" t="n">
-        <v>380.1181913177838</v>
+        <v>361.7902085051853</v>
       </c>
       <c r="H2" t="n">
-        <v>285.9622731058174</v>
+        <v>304.2902559184159</v>
       </c>
       <c r="I2" t="n">
-        <v>156.9633605604562</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27479,7 +27479,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27506,19 +27506,19 @@
         <v>46.64530514269338</v>
       </c>
       <c r="S3" t="n">
-        <v>118.1706420938881</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>146.6521996848718</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>178.8075465290111</v>
       </c>
       <c r="V3" t="n">
         <v>179.2880581394755</v>
       </c>
       <c r="W3" t="n">
-        <v>205.3077389352137</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27552,16 +27552,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>136.065262941971</v>
       </c>
       <c r="I4" t="n">
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>39.84665110672302</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27591,7 +27591,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>282.4266116169052</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>172.1971263790874</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
-        <v>175.1662893844119</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>209.8933976134044</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>145.2236497783945</v>
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>121.2443095168949</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27755,7 +27755,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>206.4061090279471</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27789,16 +27789,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>147.3903175997337</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>115.622687458563</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27813,7 +27813,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>184.6994991779021</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27862,13 +27862,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>209.8933976134044</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -27895,7 +27895,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -27904,22 +27904,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -27953,7 +27953,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27980,19 +27980,19 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>11.23894902822556</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>46.94970537138147</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28029,7 +28029,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
+        <v>51.35040662570935</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="M3" t="n">
-        <v>51.35040662570936</v>
-      </c>
-      <c r="N3" t="n">
+      <c r="Q3" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34948,7 +34948,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35024,16 +35024,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>43.28534947792182</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35185,7 +35185,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P8" t="n">
         <v>90.5657124162131</v>
@@ -35258,19 +35258,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>43.28534947792188</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35419,7 +35419,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
@@ -35492,22 +35492,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="M12" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35656,10 +35656,10 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P14" t="n">
         <v>90.5657124162131</v>
@@ -35729,16 +35729,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>91.0829537758999</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -35966,16 +35966,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>169.9067907798016</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
@@ -36206,19 +36206,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>99.81127712997396</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36440,7 +36440,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M24" t="n">
         <v>241.0142888776591</v>
@@ -36449,13 +36449,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>169.9091475161414</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,22 +36674,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>169.9067907798016</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36911,13 +36911,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>241.0142888776591</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
@@ -36929,7 +36929,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37154,13 +37154,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
         <v>169.9067907798017</v>
       </c>
-      <c r="N33" t="n">
+      <c r="O33" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
@@ -37391,13 +37391,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N36" t="n">
-        <v>169.9067907798016</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
@@ -37622,25 +37622,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
+        <v>217.7067518141195</v>
+      </c>
+      <c r="N39" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N39" t="n">
-        <v>169.9067907798016</v>
-      </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37868,16 +37868,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38099,16 +38099,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N45" t="n">
-        <v>169.9067907798016</v>
-      </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_5_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_5_28.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1425830.489111093</v>
+        <v>1428154.160924961</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1151840.918742179</v>
+        <v>1151840.918742178</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5988278.901692688</v>
+        <v>5988278.901692687</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,19 +670,19 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>53.51252900994975</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>53.51252900994975</v>
+        <v>30.26709059570747</v>
       </c>
       <c r="H2" t="n">
-        <v>35.18454619735122</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>53.51252900994974</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -701,16 +703,16 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>53.51252900994974</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>53.51252900994974</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -750,16 +752,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>46.38724422570586</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>53.51252900994974</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>53.51252900994975</v>
+        <v>53.51252900994974</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>53.51252900994974</v>
       </c>
       <c r="T3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>47.13383555196375</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -829,16 +831,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>53.51252900994974</v>
       </c>
       <c r="H4" t="n">
-        <v>26.16190956546853</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>23.44046883036206</v>
       </c>
       <c r="J4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -856,10 +858,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -874,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>53.51252900994974</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,31 +895,31 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>40.47627913313517</v>
+      </c>
+      <c r="G5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="H5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F5" t="n">
-        <v>196.9826481283071</v>
-      </c>
-      <c r="G5" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,10 +940,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -981,10 +983,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -1026,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>142.3204712044529</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1035,13 +1037,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>45.28887413297245</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1066,16 +1068,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>39.82778746869526</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1130,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
       <c r="F8" t="n">
-        <v>196.9826481283071</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1175,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1190,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>186.9919489137623</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1221,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>64.98991120469601</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1269,10 +1271,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>204.7452777895381</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1291,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1330,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1342,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1382,7 +1384,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G11" t="n">
-        <v>200.3360962888296</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1391,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1452,25 +1454,25 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>21.0507685937734</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1500,10 +1502,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>110.1044675570004</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1512,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1546,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1567,13 +1569,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1616,55 +1618,55 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>21.18375537072436</v>
+      </c>
+      <c r="S14" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T14" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U14" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G14" t="n">
+      <c r="V14" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H14" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I14" t="n">
-        <v>200.3360962888296</v>
-      </c>
-      <c r="J14" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1689,25 +1691,25 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,28 +1733,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>48.62932063282399</v>
+        <v>24.38096634370151</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1786,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -1804,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1862,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1926,19 +1928,19 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>89.39663285141508</v>
@@ -1968,22 +1970,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>146.1932996118735</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>147.9845033927267</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2078,76 +2080,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="X20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2160,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2172,16 +2174,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>23.28159757912396</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>74.68724723079625</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,25 +2207,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2254,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2302,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2315,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2327,13 +2329,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2369,13 +2371,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>212.285385643442</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2394,10 +2396,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2415,7 +2417,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>52.89562800289951</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>61.63609948583534</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
@@ -2457,13 +2459,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2524,22 +2526,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2555,73 +2557,73 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
+      <c r="W26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>212.285385643442</v>
       </c>
       <c r="X26" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
     </row>
     <row r="27">
@@ -2631,13 +2633,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2679,28 +2681,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>174.6530184069498</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2719,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2731,10 +2733,10 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>39.82778746869524</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2810,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2834,25 +2836,25 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>33.80371536444976</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2880,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2916,19 +2918,19 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="S30" t="n">
-        <v>17.37254956828078</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>241.0142888776591</v>
@@ -2937,7 +2939,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2962,19 +2964,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3044,10 +3046,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3071,10 +3073,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3083,16 +3085,16 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3105,31 +3107,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>60.09118670082915</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,19 +3155,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>118.5628686044507</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3174,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3229,10 +3231,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>133.186967585368</v>
+        <v>47.02492433367362</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3272,22 +3274,22 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>50.46697834767978</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
-        <v>33.80371536444981</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3311,10 +3313,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3323,16 +3325,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3342,19 +3344,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>45.16993277272628</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3366,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3396,22 +3398,22 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>9.995741860669492</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3521,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3545,22 +3547,22 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>82.96396779500064</v>
       </c>
       <c r="T38" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>241.0142888776591</v>
@@ -3569,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="39">
@@ -3579,28 +3581,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>162.4502786393444</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>91.44497723232989</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3639,7 +3641,7 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -3648,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3667,58 +3669,58 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3746,22 +3748,22 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>9.234466016111835</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F41" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G41" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3791,7 +3793,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>3.265316057196634</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3803,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3816,22 +3818,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>45.7693770721695</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3864,22 +3866,22 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>35.40726547353833</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3943,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3974,26 +3976,26 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C44" t="n">
+      <c r="G44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D44" t="n">
+      <c r="H44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>3.26531605719669</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
@@ -4025,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4056,25 +4058,25 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>47.26241467853677</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4119,10 +4121,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>71.21538793874659</v>
       </c>
     </row>
     <row r="46">
@@ -4153,49 +4155,49 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>159.9970564337892</v>
+        <v>95.85238145955219</v>
       </c>
       <c r="C2" t="n">
-        <v>159.9970564337892</v>
+        <v>95.85238145955219</v>
       </c>
       <c r="D2" t="n">
-        <v>159.9970564337892</v>
+        <v>95.85238145955219</v>
       </c>
       <c r="E2" t="n">
-        <v>159.9970564337892</v>
+        <v>95.85238145955219</v>
       </c>
       <c r="F2" t="n">
-        <v>105.9439968277793</v>
+        <v>88.90688071034872</v>
       </c>
       <c r="G2" t="n">
-        <v>51.89093722176946</v>
+        <v>58.33406192680582</v>
       </c>
       <c r="H2" t="n">
-        <v>16.35099156787933</v>
+        <v>58.33406192680582</v>
       </c>
       <c r="I2" t="n">
-        <v>16.35099156787933</v>
+        <v>4.281002320795979</v>
       </c>
       <c r="J2" t="n">
-        <v>4.28100232079598</v>
+        <v>4.281002320795979</v>
       </c>
       <c r="K2" t="n">
-        <v>57.25840604064623</v>
+        <v>57.25840604064621</v>
       </c>
       <c r="L2" t="n">
-        <v>108.0953086000985</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="M2" t="n">
-        <v>161.0727123199487</v>
+        <v>163.2132134803467</v>
       </c>
       <c r="N2" t="n">
         <v>214.050116039799</v>
@@ -4349,31 +4351,31 @@
         <v>214.050116039799</v>
       </c>
       <c r="Q2" t="n">
-        <v>214.050116039799</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="R2" t="n">
-        <v>214.050116039799</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="S2" t="n">
-        <v>214.050116039799</v>
+        <v>149.905441065562</v>
       </c>
       <c r="T2" t="n">
-        <v>214.050116039799</v>
+        <v>95.85238145955219</v>
       </c>
       <c r="U2" t="n">
-        <v>214.050116039799</v>
+        <v>95.85238145955219</v>
       </c>
       <c r="V2" t="n">
-        <v>214.050116039799</v>
+        <v>95.85238145955219</v>
       </c>
       <c r="W2" t="n">
-        <v>214.050116039799</v>
+        <v>95.85238145955219</v>
       </c>
       <c r="X2" t="n">
-        <v>214.050116039799</v>
+        <v>95.85238145955219</v>
       </c>
       <c r="Y2" t="n">
-        <v>214.050116039799</v>
+        <v>95.85238145955219</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.28100232079598</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="C3" t="n">
-        <v>4.28100232079598</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="D3" t="n">
-        <v>4.28100232079598</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="E3" t="n">
-        <v>4.28100232079598</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="F3" t="n">
-        <v>4.28100232079598</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="G3" t="n">
-        <v>4.28100232079598</v>
+        <v>59.08819457959153</v>
       </c>
       <c r="H3" t="n">
-        <v>4.28100232079598</v>
+        <v>5.035134973581693</v>
       </c>
       <c r="I3" t="n">
-        <v>4.28100232079598</v>
+        <v>5.035134973581693</v>
       </c>
       <c r="J3" t="n">
-        <v>4.28100232079598</v>
+        <v>4.281002320795979</v>
       </c>
       <c r="K3" t="n">
-        <v>4.28100232079598</v>
+        <v>57.25840604064621</v>
       </c>
       <c r="L3" t="n">
-        <v>4.28100232079598</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="M3" t="n">
-        <v>57.25840604064623</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="N3" t="n">
-        <v>108.0953086000985</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="O3" t="n">
-        <v>108.0953086000985</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="P3" t="n">
         <v>161.0727123199487</v>
@@ -4431,28 +4433,28 @@
         <v>214.050116039799</v>
       </c>
       <c r="R3" t="n">
-        <v>159.9970564337892</v>
+        <v>159.9970564337891</v>
       </c>
       <c r="S3" t="n">
-        <v>159.9970564337892</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="T3" t="n">
         <v>105.9439968277793</v>
       </c>
       <c r="U3" t="n">
-        <v>58.33406192680583</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="V3" t="n">
-        <v>4.28100232079598</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="W3" t="n">
-        <v>4.28100232079598</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="X3" t="n">
-        <v>4.28100232079598</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.28100232079598</v>
+        <v>105.9439968277793</v>
       </c>
     </row>
     <row r="4">
@@ -4462,34 +4464,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>84.76023320505688</v>
+        <v>82.01130316959578</v>
       </c>
       <c r="C4" t="n">
-        <v>84.76023320505688</v>
+        <v>82.01130316959578</v>
       </c>
       <c r="D4" t="n">
-        <v>84.76023320505688</v>
+        <v>82.01130316959578</v>
       </c>
       <c r="E4" t="n">
-        <v>84.76023320505688</v>
+        <v>82.01130316959578</v>
       </c>
       <c r="F4" t="n">
-        <v>84.76023320505688</v>
+        <v>82.01130316959578</v>
       </c>
       <c r="G4" t="n">
-        <v>84.76023320505688</v>
+        <v>27.95824356358594</v>
       </c>
       <c r="H4" t="n">
-        <v>58.33406192680583</v>
+        <v>27.95824356358594</v>
       </c>
       <c r="I4" t="n">
-        <v>58.33406192680583</v>
+        <v>4.281002320795979</v>
       </c>
       <c r="J4" t="n">
-        <v>4.28100232079598</v>
+        <v>4.281002320795979</v>
       </c>
       <c r="K4" t="n">
-        <v>4.28100232079598</v>
+        <v>4.281002320795979</v>
       </c>
       <c r="L4" t="n">
         <v>31.59512732850896</v>
@@ -4504,34 +4506,34 @@
         <v>138.8132928110667</v>
       </c>
       <c r="P4" t="n">
-        <v>138.8132928110667</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="Q4" t="n">
-        <v>84.76023320505688</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="R4" t="n">
-        <v>84.76023320505688</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="S4" t="n">
-        <v>84.76023320505688</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="T4" t="n">
-        <v>84.76023320505688</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="U4" t="n">
-        <v>84.76023320505688</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="V4" t="n">
-        <v>84.76023320505688</v>
+        <v>82.01130316959578</v>
       </c>
       <c r="W4" t="n">
-        <v>84.76023320505688</v>
+        <v>82.01130316959578</v>
       </c>
       <c r="X4" t="n">
-        <v>84.76023320505688</v>
+        <v>82.01130316959578</v>
       </c>
       <c r="Y4" t="n">
-        <v>84.76023320505688</v>
+        <v>82.01130316959578</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>477.1596022224361</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C5" t="n">
-        <v>477.1596022224361</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="D5" t="n">
-        <v>477.1596022224361</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="E5" t="n">
-        <v>233.7108255783361</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="F5" t="n">
-        <v>34.73845373156126</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y5" t="n">
-        <v>720.6083788665362</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="6">
@@ -4620,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>817.1412885554689</v>
+        <v>511.3692755768984</v>
       </c>
       <c r="C6" t="n">
-        <v>817.1412885554689</v>
+        <v>511.3692755768984</v>
       </c>
       <c r="D6" t="n">
-        <v>668.2068788942177</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="F6" t="n">
         <v>362.4348659156472</v>
@@ -4656,10 +4658,10 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>613.2059550252818</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
-        <v>851.8101010141643</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
         <v>964.0571555106362</v>
@@ -4674,22 +4676,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>862.8876260635219</v>
+        <v>719.1295743418523</v>
       </c>
       <c r="U6" t="n">
-        <v>862.8876260635219</v>
+        <v>719.1295743418523</v>
       </c>
       <c r="V6" t="n">
-        <v>862.8876260635219</v>
+        <v>719.1295743418523</v>
       </c>
       <c r="W6" t="n">
-        <v>817.1412885554689</v>
+        <v>719.1295743418523</v>
       </c>
       <c r="X6" t="n">
-        <v>817.1412885554689</v>
+        <v>719.1295743418523</v>
       </c>
       <c r="Y6" t="n">
-        <v>817.1412885554689</v>
+        <v>511.3692755768984</v>
       </c>
     </row>
     <row r="7">
@@ -4714,13 +4716,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
         <v>19.28114311021272</v>
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>233.7108255783361</v>
+        <v>765.0847836638613</v>
       </c>
       <c r="C8" t="n">
-        <v>233.7108255783361</v>
+        <v>765.0847836638613</v>
       </c>
       <c r="D8" t="n">
-        <v>233.7108255783361</v>
+        <v>765.0847836638613</v>
       </c>
       <c r="E8" t="n">
-        <v>233.7108255783361</v>
+        <v>521.6360070197613</v>
       </c>
       <c r="F8" t="n">
-        <v>34.73845373156126</v>
+        <v>278.1872303756613</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W8" t="n">
-        <v>720.6083788665362</v>
+        <v>765.0847836638613</v>
       </c>
       <c r="X8" t="n">
-        <v>720.6083788665362</v>
+        <v>765.0847836638613</v>
       </c>
       <c r="Y8" t="n">
-        <v>477.1596022224361</v>
+        <v>765.0847836638613</v>
       </c>
     </row>
     <row r="9">
@@ -4857,40 +4859,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>314.7121052774648</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>175.9812798600803</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M9" t="n">
-        <v>542.809531908403</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N9" t="n">
         <v>542.809531908403</v>
@@ -4917,16 +4919,16 @@
         <v>461.2466632505798</v>
       </c>
       <c r="V9" t="n">
-        <v>226.0945550188371</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="W9" t="n">
-        <v>19.28114311021272</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="X9" t="n">
-        <v>19.28114311021272</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.28114311021272</v>
+        <v>461.2466632505798</v>
       </c>
     </row>
     <row r="10">
@@ -4936,7 +4938,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
         <v>19.28114311021272</v>
@@ -4978,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5030,13 +5032,13 @@
         <v>233.7108255783361</v>
       </c>
       <c r="G11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5094,46 +5096,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>689.4702815141908</v>
+        <v>168.215552771464</v>
       </c>
       <c r="C12" t="n">
-        <v>689.4702815141908</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D12" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E12" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F12" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G12" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
-        <v>178.8501590306595</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M12" t="n">
-        <v>417.4543050195419</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N12" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O12" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P12" t="n">
         <v>894.6625969973069</v>
@@ -5148,22 +5150,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T12" t="n">
-        <v>689.4702815141908</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U12" t="n">
-        <v>689.4702815141908</v>
+        <v>376.0670529769968</v>
       </c>
       <c r="V12" t="n">
-        <v>689.4702815141908</v>
+        <v>376.0670529769968</v>
       </c>
       <c r="W12" t="n">
-        <v>689.4702815141908</v>
+        <v>376.0670529769968</v>
       </c>
       <c r="X12" t="n">
-        <v>689.4702815141908</v>
+        <v>168.215552771464</v>
       </c>
       <c r="Y12" t="n">
-        <v>689.4702815141908</v>
+        <v>168.215552771464</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I13" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J13" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K13" t="n">
         <v>19.28114311021272</v>
@@ -5215,34 +5217,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C14" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D14" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E14" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F14" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G14" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5300,28 +5302,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>942.6594228129348</v>
       </c>
       <c r="S14" t="n">
-        <v>964.0571555106362</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T14" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U14" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V14" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W14" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X14" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y14" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>544.5346979575927</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C15" t="n">
-        <v>544.5346979575927</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D15" t="n">
-        <v>395.6002882963414</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E15" t="n">
-        <v>395.6002882963414</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>249.0657303232264</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L15" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M15" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N15" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O15" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P15" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T15" t="n">
-        <v>761.8705608694022</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U15" t="n">
-        <v>761.8705608694022</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V15" t="n">
-        <v>761.8705608694022</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W15" t="n">
-        <v>712.7500349776608</v>
+        <v>603.1082791007675</v>
       </c>
       <c r="X15" t="n">
-        <v>712.7500349776608</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="Y15" t="n">
-        <v>712.7500349776608</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="C16" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="D16" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="E16" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="F16" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="G16" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="H16" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="I16" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J16" t="n">
         <v>41.77557929797318</v>
@@ -5452,34 +5454,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>82.32787816303323</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C17" t="n">
-        <v>82.32787816303323</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D17" t="n">
-        <v>82.32787816303323</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
-        <v>82.32787816303323</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>82.32787816303323</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>82.32787816303323</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>82.32787816303323</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
         <v>19.28114311021272</v>
@@ -5537,28 +5539,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>812.6742080953335</v>
+        <v>942.6594228129348</v>
       </c>
       <c r="S17" t="n">
-        <v>812.6742080953335</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T17" t="n">
-        <v>812.6742080953335</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U17" t="n">
-        <v>812.6742080953335</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V17" t="n">
-        <v>812.6742080953335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W17" t="n">
-        <v>569.2254314512334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X17" t="n">
-        <v>325.7766548071333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y17" t="n">
-        <v>82.32787816303323</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="18">
@@ -5568,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>816.3871559026832</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="C18" t="n">
-        <v>816.3871559026832</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="D18" t="n">
-        <v>667.4527462414319</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="E18" t="n">
-        <v>508.2152912359765</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F18" t="n">
-        <v>361.6807332628614</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G18" t="n">
-        <v>222.9499078454769</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H18" t="n">
         <v>109.5807722530562</v>
@@ -5595,49 +5597,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>383.2428491569326</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V18" t="n">
-        <v>816.3871559026832</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W18" t="n">
-        <v>816.3871559026832</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="X18" t="n">
-        <v>816.3871559026832</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="Y18" t="n">
-        <v>816.3871559026832</v>
+        <v>109.5807722530562</v>
       </c>
     </row>
     <row r="19">
@@ -5695,10 +5697,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
         <v>19.28114311021272</v>
@@ -5726,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>506.1786963984129</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C20" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
         <v>19.28114311021272</v>
@@ -5789,13 +5791,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W20" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X20" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y20" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>246.4666730769152</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="C21" t="n">
-        <v>246.4666730769152</v>
+        <v>185.7765687753331</v>
       </c>
       <c r="D21" t="n">
-        <v>246.4666730769152</v>
+        <v>185.7765687753331</v>
       </c>
       <c r="E21" t="n">
-        <v>246.4666730769152</v>
+        <v>185.7765687753331</v>
       </c>
       <c r="F21" t="n">
-        <v>246.4666730769152</v>
+        <v>185.7765687753331</v>
       </c>
       <c r="G21" t="n">
-        <v>222.9499078454769</v>
+        <v>185.7765687753331</v>
       </c>
       <c r="H21" t="n">
-        <v>109.5807722530562</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5838,13 +5840,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>542.809531908403</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N21" t="n">
-        <v>781.4136778972854</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
         <v>964.0571555106362</v>
@@ -5853,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>689.4702815141908</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U21" t="n">
-        <v>689.4702815141908</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V21" t="n">
-        <v>454.3181732824481</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="W21" t="n">
-        <v>454.3181732824481</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="X21" t="n">
-        <v>246.4666730769152</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="Y21" t="n">
-        <v>246.4666730769152</v>
+        <v>360.2295980564601</v>
       </c>
     </row>
     <row r="22">
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H22" t="n">
         <v>19.28114311021272</v>
@@ -5950,10 +5952,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>506.1786963984129</v>
+        <v>495.259035872464</v>
       </c>
       <c r="C23" t="n">
-        <v>506.1786963984129</v>
+        <v>251.810259228364</v>
       </c>
       <c r="D23" t="n">
-        <v>506.1786963984129</v>
+        <v>251.810259228364</v>
       </c>
       <c r="E23" t="n">
-        <v>506.1786963984129</v>
+        <v>251.810259228364</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>251.810259228364</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>251.810259228364</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6017,22 +6019,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>749.627473042513</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U23" t="n">
-        <v>749.627473042513</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V23" t="n">
-        <v>506.1786963984129</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W23" t="n">
-        <v>506.1786963984129</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="X23" t="n">
-        <v>506.1786963984129</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="Y23" t="n">
-        <v>506.1786963984129</v>
+        <v>738.7078125165641</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>385.8949250843803</v>
+        <v>248.3115976704407</v>
       </c>
       <c r="C24" t="n">
-        <v>211.4418958032533</v>
+        <v>248.3115976704407</v>
       </c>
       <c r="D24" t="n">
-        <v>211.4418958032533</v>
+        <v>248.3115976704407</v>
       </c>
       <c r="E24" t="n">
-        <v>211.4418958032533</v>
+        <v>248.3115976704407</v>
       </c>
       <c r="F24" t="n">
-        <v>211.4418958032533</v>
+        <v>248.3115976704407</v>
       </c>
       <c r="G24" t="n">
-        <v>72.71107038586879</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H24" t="n">
-        <v>72.71107038586879</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I24" t="n">
         <v>19.28114311021272</v>
@@ -6069,16 +6071,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>65.60123993063803</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O24" t="n">
         <v>781.4136778972854</v>
@@ -6093,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>901.7984691613076</v>
       </c>
       <c r="T24" t="n">
-        <v>761.8705608694022</v>
+        <v>699.6118745200736</v>
       </c>
       <c r="U24" t="n">
-        <v>761.8705608694022</v>
+        <v>699.6118745200736</v>
       </c>
       <c r="V24" t="n">
-        <v>761.8705608694022</v>
+        <v>699.6118745200736</v>
       </c>
       <c r="W24" t="n">
-        <v>761.8705608694022</v>
+        <v>456.1630978759736</v>
       </c>
       <c r="X24" t="n">
-        <v>761.8705608694022</v>
+        <v>248.3115976704407</v>
       </c>
       <c r="Y24" t="n">
-        <v>554.1102621044483</v>
+        <v>248.3115976704407</v>
       </c>
     </row>
     <row r="25">
@@ -6172,19 +6174,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
         <v>19.28114311021272</v>
@@ -6200,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
         <v>19.28114311021272</v>
@@ -6260,16 +6262,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W26" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X26" t="n">
-        <v>506.1786963984129</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="Y26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="27">
@@ -6279,10 +6281,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>168.215552771464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>168.215552771464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
         <v>19.28114311021272</v>
@@ -6306,49 +6308,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M27" t="n">
-        <v>487.8483949674443</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N27" t="n">
-        <v>726.4525409563269</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O27" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T27" t="n">
-        <v>787.6399652005859</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U27" t="n">
-        <v>787.6399652005859</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V27" t="n">
-        <v>787.6399652005859</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W27" t="n">
-        <v>544.1911885564859</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X27" t="n">
-        <v>544.1911885564859</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y27" t="n">
-        <v>336.430889791532</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>923.8270671584188</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E29" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>929.9119884758385</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>718.7806050553886</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T29" t="n">
-        <v>718.7806050553886</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U29" t="n">
-        <v>718.7806050553886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V29" t="n">
-        <v>718.7806050553886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W29" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X29" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y29" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6516,16 +6518,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
         <v>19.28114311021272</v>
@@ -6543,49 +6545,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M30" t="n">
-        <v>304.2053859195205</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="S30" t="n">
-        <v>845.3395961965716</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="T30" t="n">
-        <v>845.3395961965716</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="U30" t="n">
-        <v>617.1159779329607</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V30" t="n">
-        <v>617.1159779329607</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W30" t="n">
-        <v>373.6672012888606</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X30" t="n">
-        <v>165.8157010833278</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y30" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="31">
@@ -6610,16 +6612,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>852.019301208126</v>
       </c>
       <c r="K31" t="n">
         <v>829.5248650203655</v>
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>262.7299197543128</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C32" t="n">
-        <v>262.7299197543128</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U32" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V32" t="n">
-        <v>506.1786963984129</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W32" t="n">
-        <v>506.1786963984129</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X32" t="n">
-        <v>262.7299197543128</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y32" t="n">
-        <v>262.7299197543128</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="33">
@@ -6753,40 +6755,40 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>728.9050472788936</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C33" t="n">
-        <v>728.9050472788936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M33" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N33" t="n">
         <v>542.809531908403</v>
@@ -6801,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="U33" t="n">
-        <v>964.0571555106362</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="V33" t="n">
-        <v>728.9050472788936</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="W33" t="n">
-        <v>728.9050472788936</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="X33" t="n">
-        <v>728.9050472788936</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="Y33" t="n">
-        <v>728.9050472788936</v>
+        <v>361.9495094114078</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="R34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="S34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.0282188019862</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="C35" t="n">
-        <v>266.0282188019862</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="D35" t="n">
-        <v>266.0282188019862</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="E35" t="n">
-        <v>266.0282188019862</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="F35" t="n">
-        <v>266.0282188019862</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G35" t="n">
-        <v>266.0282188019862</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H35" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6959,28 +6961,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S35" t="n">
-        <v>752.9257720901863</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T35" t="n">
-        <v>752.9257720901863</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U35" t="n">
-        <v>752.9257720901863</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V35" t="n">
-        <v>509.4769954460863</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W35" t="n">
-        <v>509.4769954460863</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X35" t="n">
-        <v>266.0282188019862</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y35" t="n">
-        <v>266.0282188019862</v>
+        <v>569.2254314512334</v>
       </c>
     </row>
     <row r="36">
@@ -6990,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>385.8949250843803</v>
+        <v>502.6601697108322</v>
       </c>
       <c r="C36" t="n">
-        <v>211.4418958032533</v>
+        <v>328.2071404297052</v>
       </c>
       <c r="D36" t="n">
-        <v>165.8157010833278</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E36" t="n">
-        <v>165.8157010833278</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M36" t="n">
-        <v>542.809531908403</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7044,22 +7046,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>761.8705608694022</v>
+        <v>953.960446560465</v>
       </c>
       <c r="W36" t="n">
-        <v>761.8705608694022</v>
+        <v>710.511669916365</v>
       </c>
       <c r="X36" t="n">
-        <v>761.8705608694022</v>
+        <v>502.6601697108322</v>
       </c>
       <c r="Y36" t="n">
-        <v>554.1102621044483</v>
+        <v>502.6601697108322</v>
       </c>
     </row>
     <row r="37">
@@ -7117,10 +7119,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T37" t="n">
         <v>19.28114311021272</v>
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="C38" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="T38" t="n">
-        <v>749.627473042513</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="U38" t="n">
-        <v>506.1786963984129</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="V38" t="n">
-        <v>262.7299197543128</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="W38" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="X38" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y38" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>592.2056662008901</v>
+        <v>286.10283626238</v>
       </c>
       <c r="C39" t="n">
-        <v>417.752636919763</v>
+        <v>111.649806981253</v>
       </c>
       <c r="D39" t="n">
-        <v>268.8182272585117</v>
+        <v>111.649806981253</v>
       </c>
       <c r="E39" t="n">
-        <v>109.5807722530562</v>
+        <v>111.649806981253</v>
       </c>
       <c r="F39" t="n">
-        <v>109.5807722530562</v>
+        <v>111.649806981253</v>
       </c>
       <c r="G39" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
         <v>19.28114311021272</v>
@@ -7260,43 +7262,43 @@
         <v>19.28114311021272</v>
       </c>
       <c r="M39" t="n">
-        <v>234.810827406191</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N39" t="n">
-        <v>473.4149733950735</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U39" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V39" t="n">
-        <v>964.0571555106362</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="W39" t="n">
-        <v>964.0571555106362</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="X39" t="n">
-        <v>964.0571555106362</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="Y39" t="n">
-        <v>756.2968567456824</v>
+        <v>454.3181732824481</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>749.627473042513</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="C41" t="n">
-        <v>749.627473042513</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="D41" t="n">
-        <v>749.627473042513</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="E41" t="n">
-        <v>506.1786963984129</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="F41" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G41" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7439,22 +7441,22 @@
         <v>752.9257720901863</v>
       </c>
       <c r="T41" t="n">
-        <v>749.627473042513</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U41" t="n">
-        <v>749.627473042513</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="V41" t="n">
-        <v>749.627473042513</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="W41" t="n">
-        <v>749.627473042513</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="X41" t="n">
-        <v>749.627473042513</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="Y41" t="n">
-        <v>749.627473042513</v>
+        <v>284.1276524520142</v>
       </c>
     </row>
     <row r="42">
@@ -7464,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>19.28114311021272</v>
+        <v>694.6722890434539</v>
       </c>
       <c r="C42" t="n">
-        <v>19.28114311021272</v>
+        <v>520.2192597623269</v>
       </c>
       <c r="D42" t="n">
-        <v>19.28114311021272</v>
+        <v>371.2848501010757</v>
       </c>
       <c r="E42" t="n">
-        <v>19.28114311021272</v>
+        <v>212.0473950956202</v>
       </c>
       <c r="F42" t="n">
-        <v>19.28114311021272</v>
+        <v>65.51283712250515</v>
       </c>
       <c r="G42" t="n">
         <v>19.28114311021272</v>
@@ -7491,49 +7493,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M42" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N42" t="n">
-        <v>851.8101010141643</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O42" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P42" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>928.2922408909005</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S42" t="n">
-        <v>928.2922408909005</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T42" t="n">
-        <v>726.1056462496665</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U42" t="n">
-        <v>497.8820279860555</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V42" t="n">
-        <v>262.7299197543128</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W42" t="n">
-        <v>19.28114311021272</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X42" t="n">
-        <v>19.28114311021272</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y42" t="n">
-        <v>19.28114311021272</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="43">
@@ -7591,13 +7593,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
         <v>19.28114311021272</v>
@@ -7622,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>509.4769954460863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C44" t="n">
-        <v>266.0282188019862</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D44" t="n">
-        <v>22.57944215788615</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E44" t="n">
-        <v>22.57944215788615</v>
+        <v>749.627473042513</v>
       </c>
       <c r="F44" t="n">
-        <v>22.57944215788615</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G44" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H44" t="n">
         <v>19.28114311021272</v>
@@ -7673,25 +7675,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S44" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T44" t="n">
-        <v>752.9257720901863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U44" t="n">
-        <v>752.9257720901863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V44" t="n">
-        <v>752.9257720901863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W44" t="n">
-        <v>752.9257720901863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X44" t="n">
-        <v>752.9257720901863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y44" t="n">
-        <v>752.9257720901863</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>619.4388494194218</v>
+        <v>440.8221433693402</v>
       </c>
       <c r="C45" t="n">
-        <v>444.9858201382948</v>
+        <v>440.8221433693402</v>
       </c>
       <c r="D45" t="n">
-        <v>296.0514104770435</v>
+        <v>291.8877337080889</v>
       </c>
       <c r="E45" t="n">
-        <v>296.0514104770435</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F45" t="n">
-        <v>296.0514104770435</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G45" t="n">
-        <v>157.320585059659</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H45" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
         <v>19.28114311021272</v>
@@ -7728,49 +7730,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>304.2053859195205</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M45" t="n">
-        <v>304.2053859195205</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N45" t="n">
-        <v>542.809531908403</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O45" t="n">
-        <v>781.4136778972854</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P45" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W45" t="n">
-        <v>619.4388494194218</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X45" t="n">
-        <v>619.4388494194218</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y45" t="n">
-        <v>619.4388494194218</v>
+        <v>440.8221433693402</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7982,13 +7984,13 @@
         <v>273.6023800549303</v>
       </c>
       <c r="L2" t="n">
-        <v>287.1168215956966</v>
+        <v>289.278943979937</v>
       </c>
       <c r="M2" t="n">
         <v>283.8587622372225</v>
       </c>
       <c r="N2" t="n">
-        <v>282.9255926065406</v>
+        <v>280.7634702223003</v>
       </c>
       <c r="O2" t="n">
         <v>230.0982114216867</v>
@@ -8058,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>191.3539679843087</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>192.0669087898239</v>
       </c>
       <c r="M3" t="n">
-        <v>195.6465629319681</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>182.6921187090427</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>187.48693642428</v>
+        <v>185.3248140400396</v>
       </c>
       <c r="Q3" t="n">
-        <v>193.4943030959713</v>
+        <v>193.4943030959712</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8304,13 +8306,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>247.3552705420797</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8453,7 +8455,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8532,16 +8534,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M9" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8769,13 +8771,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>173.111405903722</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N12" t="n">
         <v>372.3560009609923</v>
@@ -8784,7 +8786,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9006,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N15" t="n">
-        <v>231.1529892133072</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,16 +9245,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>292.5201795090609</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9261,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9486,16 +9488,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>312.04082470182</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9717,19 +9719,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9954,25 +9956,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,25 +10193,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>360.302996258564</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,16 +10430,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10665,25 +10667,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7352039419416</v>
       </c>
       <c r="M36" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10823,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10908,7 +10910,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
@@ -10920,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11139,10 +11141,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M42" t="n">
         <v>383.1483227996774</v>
@@ -11151,13 +11153,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11376,13 +11378,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>299.7328472056018</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
         <v>372.3560009609923</v>
@@ -11394,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23270,7 +23272,7 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G11" t="n">
-        <v>214.9666412263055</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
@@ -23279,7 +23281,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23340,25 +23342,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>126.3942969708654</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23388,10 +23390,10 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>115.8369145239744</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23400,7 +23402,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23434,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23455,13 +23457,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23504,19 +23506,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23540,19 +23542,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23577,25 +23579,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>203.0656625280956</v>
+        <v>227.3140168172181</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>162.2736845391249</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23674,7 +23676,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23692,13 +23694,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23750,7 +23752,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>148.0596218681136</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23777,28 +23779,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23814,19 +23816,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23856,22 +23858,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>86.60728753755174</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>103.7104797681929</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23935,13 +23937,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23966,19 +23968,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>415.302737515135</v>
@@ -24029,13 +24031,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>136.955583073971</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24048,7 +24050,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24060,16 +24062,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>114.0619195840867</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>37.54819700570022</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,25 +24095,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24142,7 +24144,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H22" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I22" t="n">
         <v>155.4504749272583</v>
@@ -24190,7 +24192,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24203,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24215,13 +24217,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>109.2709771587974</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24257,13 +24259,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>10.81046392068936</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24282,10 +24284,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24303,7 +24305,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>36.50100484851557</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -24333,7 +24335,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>110.0470716180025</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24345,13 +24347,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24412,7 +24414,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
@@ -24427,7 +24429,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24443,13 +24445,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24500,16 +24502,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
-        <v>136.955583073971</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126115</v>
       </c>
     </row>
     <row r="27">
@@ -24519,13 +24521,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24567,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>25.51171028787184</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24607,7 +24609,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24619,10 +24621,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I28" t="n">
-        <v>115.622687458563</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K28" t="n">
         <v>22.26949182588285</v>
@@ -24698,7 +24700,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -24722,25 +24724,25 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>116.0654025766999</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>149.0074258151476</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24768,7 +24770,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
@@ -24804,19 +24806,19 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>50.10013888409016</v>
       </c>
       <c r="S30" t="n">
-        <v>154.310621535557</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>10.68069428326055</v>
@@ -24825,7 +24827,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24850,19 +24852,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H31" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I31" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J31" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24932,10 +24934,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>158.0503210826583</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24959,10 +24961,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
@@ -24971,16 +24973,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24993,31 +24995,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>87.3538788638096</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,19 +25043,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>81.60186009037089</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -25062,7 +25064,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25117,10 +25119,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>44.10642379180146</v>
+        <v>130.2684670434959</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25160,22 +25162,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>356.4090673940316</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
-        <v>305.6710867513173</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25199,10 +25201,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
         <v>223.0958495641314</v>
@@ -25211,16 +25213,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25230,19 +25232,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>102.2751327919125</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
@@ -25254,7 +25256,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25284,22 +25286,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>222.8048452887558</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25357,13 +25359,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
         <v>286.3190293564909</v>
@@ -25409,7 +25411,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -25433,22 +25435,22 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>126.0561017912447</v>
       </c>
       <c r="T38" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>108.226679839754</v>
@@ -25457,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25467,28 +25469,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>4.08290501052295</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>45.89853993088074</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -25515,10 +25517,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
@@ -25527,7 +25529,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -25536,7 +25538,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25555,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>13.24699506120118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25606,7 +25608,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25634,22 +25636,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>165.8617568640524</v>
+        <v>397.6415797255996</v>
       </c>
       <c r="G41" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25679,7 +25681,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>219.8305335069347</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
@@ -25691,7 +25693,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25704,22 +25706,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>91.57414009104113</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
@@ -25752,22 +25754,22 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>64.7505686791048</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -25831,7 +25833,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25840,7 +25842,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25862,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G44" t="n">
-        <v>412.0374214579384</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25913,10 +25915,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
@@ -25944,25 +25946,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>64.97302955795969</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -25989,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -26007,10 +26009,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>134.4673078385578</v>
       </c>
     </row>
     <row r="46">
@@ -26041,7 +26043,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I46" t="n">
-        <v>22.26350734189029</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J46" t="n">
         <v>93.35918011667277</v>
@@ -26083,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>390775.3051739904</v>
+        <v>390775.3051739903</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>390775.3051739904</v>
+        <v>390775.3051739903</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>390775.3051739904</v>
+        <v>390775.3051739903</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>390775.3051739903</v>
+        <v>390775.3051739904</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>390775.3051739904</v>
+        <v>390775.3051739903</v>
       </c>
     </row>
     <row r="14">
@@ -26311,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>574729.2389049983</v>
+      </c>
+      <c r="C2" t="n">
         <v>574729.2389049984</v>
-      </c>
-      <c r="C2" t="n">
-        <v>574729.2389049981</v>
       </c>
       <c r="D2" t="n">
         <v>574729.2389049983</v>
@@ -26323,7 +26325,7 @@
         <v>232624.9415438653</v>
       </c>
       <c r="F2" t="n">
-        <v>232624.9415438653</v>
+        <v>232624.9415438654</v>
       </c>
       <c r="G2" t="n">
         <v>232624.9415438654</v>
@@ -26332,22 +26334,22 @@
         <v>232624.9415438653</v>
       </c>
       <c r="I2" t="n">
+        <v>232624.9415438654</v>
+      </c>
+      <c r="J2" t="n">
         <v>232624.9415438653</v>
-      </c>
-      <c r="J2" t="n">
-        <v>232624.9415438654</v>
       </c>
       <c r="K2" t="n">
         <v>232624.9415438654</v>
       </c>
       <c r="L2" t="n">
-        <v>232624.9415438653</v>
+        <v>232624.9415438654</v>
       </c>
       <c r="M2" t="n">
-        <v>232624.9415438653</v>
+        <v>232624.9415438655</v>
       </c>
       <c r="N2" t="n">
-        <v>232624.9415438653</v>
+        <v>232624.9415438654</v>
       </c>
       <c r="O2" t="n">
         <v>232624.9415438654</v>
@@ -26363,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17933.27925940137</v>
+        <v>17933.27925940138</v>
       </c>
       <c r="C3" t="n">
-        <v>60576.32218666811</v>
+        <v>60576.32218666813</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26390,7 +26392,7 @@
         <v>14001.23214027929</v>
       </c>
       <c r="K3" t="n">
-        <v>48256.95293363261</v>
+        <v>48256.95293363262</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26427,16 +26429,16 @@
         <v>42017.42535589615</v>
       </c>
       <c r="F4" t="n">
-        <v>42017.42535589614</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="G4" t="n">
-        <v>42017.42535589614</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="H4" t="n">
         <v>42017.42535589615</v>
       </c>
       <c r="I4" t="n">
-        <v>42017.42535589615</v>
+        <v>42017.42535589614</v>
       </c>
       <c r="J4" t="n">
         <v>42017.42535589615</v>
@@ -26454,7 +26456,7 @@
         <v>42017.42535589615</v>
       </c>
       <c r="O4" t="n">
-        <v>42017.42535589614</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="P4" t="n">
         <v>42017.42535589615</v>
@@ -26519,10 +26521,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>159740.4333619034</v>
+        <v>159740.4333619033</v>
       </c>
       <c r="C6" t="n">
-        <v>144908.6949642127</v>
+        <v>144908.6949642131</v>
       </c>
       <c r="D6" t="n">
         <v>205485.0171508811</v>
@@ -26531,34 +26533,34 @@
         <v>175953.8474242075</v>
       </c>
       <c r="F6" t="n">
+        <v>175953.8474242076</v>
+      </c>
+      <c r="G6" t="n">
         <v>175953.8474242075</v>
-      </c>
-      <c r="G6" t="n">
-        <v>175953.8474242076</v>
       </c>
       <c r="H6" t="n">
         <v>175953.8474242075</v>
       </c>
       <c r="I6" t="n">
-        <v>175953.8474242075</v>
+        <v>175953.8474242076</v>
       </c>
       <c r="J6" t="n">
-        <v>161952.6152839283</v>
+        <v>161952.6152839282</v>
       </c>
       <c r="K6" t="n">
         <v>127696.894490575</v>
       </c>
       <c r="L6" t="n">
-        <v>175953.8474242075</v>
+        <v>175953.8474242076</v>
       </c>
       <c r="M6" t="n">
-        <v>175953.8474242075</v>
+        <v>175953.8474242076</v>
       </c>
       <c r="N6" t="n">
         <v>175953.8474242075</v>
       </c>
       <c r="O6" t="n">
-        <v>175953.8474242075</v>
+        <v>175953.8474242076</v>
       </c>
       <c r="P6" t="n">
         <v>175953.8474242075</v>
@@ -26787,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.51252900994975</v>
+        <v>53.51252900994974</v>
       </c>
       <c r="C4" t="n">
         <v>241.0142888776591</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.51252900994975</v>
+        <v>53.51252900994974</v>
       </c>
       <c r="C4" t="n">
         <v>187.5017598677093</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>53.51252900994975</v>
+        <v>53.51252900994974</v>
       </c>
       <c r="K4" t="n">
         <v>187.5017598677093</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>53.51252900994975</v>
+        <v>53.51252900994974</v>
       </c>
       <c r="K4" t="n">
         <v>187.5017598677093</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>329.2213126535308</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,19 +27390,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>353.3635167317617</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>361.7902085051853</v>
+        <v>385.0356469194276</v>
       </c>
       <c r="H2" t="n">
-        <v>304.2902559184159</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>156.9633605604562</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27421,16 +27423,16 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>155.5075405762956</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>169.5833205541816</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -27470,16 +27472,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>90.95627293750476</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>58.72291522654672</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,19 +27505,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>46.64530514269338</v>
+        <v>46.6453051426934</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>118.1706420938881</v>
       </c>
       <c r="T3" t="n">
-        <v>146.6521996848718</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>178.8075465290111</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>179.2880581394755</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27549,16 +27551,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>114.478450348509</v>
       </c>
       <c r="H4" t="n">
-        <v>136.065262941971</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>132.0100060968962</v>
       </c>
       <c r="J4" t="n">
-        <v>39.84665110672302</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -27576,10 +27578,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>32.64951424174463</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -27594,7 +27596,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>198.6251143138783</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,22 +27624,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>209.8933976134044</v>
+        <v>366.3997666085763</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,10 +27660,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -27701,10 +27703,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -27746,7 +27748,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>57.84425749036868</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -27755,13 +27757,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>206.4061090279471</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27786,16 +27788,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H7" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>115.622687458563</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27859,16 +27861,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
-        <v>209.8933976134044</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -27895,7 +27897,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -27910,16 +27912,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>162.2490198036507</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27941,19 +27943,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>47.24553303180045</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27989,10 +27991,10 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>46.94970537138147</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28011,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28050,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28062,7 +28064,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>97.48006257801995</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -34699,16 +34701,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>53.51252900994975</v>
+        <v>53.51252900994974</v>
       </c>
       <c r="L2" t="n">
+        <v>53.51252900994974</v>
+      </c>
+      <c r="M2" t="n">
+        <v>53.51252900994974</v>
+      </c>
+      <c r="N2" t="n">
         <v>51.35040662570935</v>
-      </c>
-      <c r="M2" t="n">
-        <v>53.51252900994975</v>
-      </c>
-      <c r="N2" t="n">
-        <v>53.51252900994975</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53.51252900994974</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>53.51252900994974</v>
       </c>
       <c r="M3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>51.35040662570935</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>53.51252900994975</v>
+        <v>51.35040662570936</v>
       </c>
       <c r="Q3" t="n">
-        <v>53.51252900994975</v>
+        <v>53.51252900994974</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34942,7 +34944,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N5" t="n">
         <v>207.9338608153932</v>
@@ -35024,13 +35026,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>113.3808631277494</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35185,7 +35187,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
         <v>90.5657124162131</v>
@@ -35252,16 +35254,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M9" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35419,10 +35421,10 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P11" t="n">
         <v>90.5657124162131</v>
@@ -35489,13 +35491,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>34.55702612384782</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N12" t="n">
         <v>241.0142888776591</v>
@@ -35504,7 +35506,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
         <v>70.09551364982758</v>
@@ -35659,7 +35661,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
         <v>90.5657124162131</v>
@@ -35726,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="N15" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N15" t="n">
-        <v>99.8112771299739</v>
-      </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35963,16 +35965,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>161.1784674257276</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -35981,7 +35983,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36206,16 +36208,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>169.9067907798017</v>
+        <v>113.3808631277495</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36437,19 +36439,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
@@ -36674,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,16 +37150,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37385,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="M36" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37628,7 +37630,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
@@ -37640,7 +37642,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37859,10 +37861,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M42" t="n">
         <v>241.0142888776591</v>
@@ -37871,13 +37873,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38096,13 +38098,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>161.1784674257276</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
         <v>241.0142888776591</v>
@@ -38114,7 +38116,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_5_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_5_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1428154.160924961</v>
+        <v>1359302.864483525</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1151840.918742178</v>
+        <v>1151840.918742179</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -673,16 +673,16 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>30.26709059570747</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>53.51252900994974</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -703,16 +703,16 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>53.51252900994974</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>53.51252900994974</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>13.00576294050472</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
     </row>
     <row r="3">
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -752,10 +752,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>46.38724422570586</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>53.51252900994974</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>53.51252900994974</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>53.51252900994974</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -803,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>46.38724422570588</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
     </row>
     <row r="4">
@@ -831,13 +831,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>53.51252900994974</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="I4" t="n">
-        <v>23.44046883036206</v>
+        <v>26.16190956546853</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>53.51252900994974</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>40.47627913313517</v>
+        <v>73.63038023878079</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,13 +974,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -989,13 +989,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>142.3204712044529</v>
+        <v>183.8842973311964</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1068,43 +1068,43 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,22 +1141,22 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>87.7061602166668</v>
       </c>
       <c r="G8" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>186.9919489137623</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1223,16 +1223,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>134.9283336809964</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>64.98991120469601</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -1268,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1375,70 +1375,70 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="V11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E11" t="n">
+      <c r="W11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F11" t="n">
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G11" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1451,22 +1451,22 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>149.6227262295179</v>
       </c>
       <c r="U12" t="n">
-        <v>110.1044675570004</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1548,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1615,16 +1615,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1651,31 +1651,31 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>21.18375537072436</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V14" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1685,16 +1685,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1703,13 +1703,13 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1733,28 +1733,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>24.38096634370151</v>
+        <v>120.1447374712888</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1788,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1849,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1891,13 +1891,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>241.0142888776591</v>
@@ -1906,7 +1906,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1934,16 +1934,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,13 +1970,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
@@ -1985,10 +1985,10 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>147.9845033927267</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>113.865858811859</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1.809496073036188</v>
+      </c>
+      <c r="H20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2140,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W20" t="n">
         <v>241.0142888776591</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2162,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2171,19 +2171,19 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>74.68724723079625</v>
+        <v>88.00021835530174</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2216,13 +2216,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2283,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>241.0142888776591</v>
@@ -2332,13 +2332,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
-        <v>230.2038249569697</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2411,13 +2411,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,16 +2447,16 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>61.63609948583534</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>241.0142888776591</v>
@@ -2465,7 +2465,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2538,10 +2538,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2560,10 +2560,10 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>190.3453970742847</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2578,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2599,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2611,19 +2611,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V26" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2642,10 +2642,10 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2654,10 +2654,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2681,28 +2681,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>170.2548558227898</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2721,49 +2721,49 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2800,17 +2800,17 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
@@ -2836,10 +2836,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
@@ -2848,10 +2848,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>50.05769526855297</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>97.76646051984092</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -2970,13 +2970,13 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3028,11 +3028,11 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
@@ -3040,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3049,10 +3049,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I32" t="n">
-        <v>52.42556848774763</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3076,16 +3076,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>208.2638363878125</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3107,22 +3107,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3161,7 +3161,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>118.5628686044507</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -3176,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>23.26470831312115</v>
       </c>
     </row>
     <row r="34">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3231,10 +3231,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>47.02492433367362</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3274,10 +3274,10 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F35" t="n">
-        <v>50.46697834767978</v>
       </c>
       <c r="G35" t="n">
         <v>241.0142888776591</v>
@@ -3289,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3313,10 +3313,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>3.265316057196634</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,16 +3344,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>121.525102284894</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3404,13 +3404,13 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>9.995741860669492</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3429,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3514,16 +3514,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3547,16 +3547,16 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.96396779500064</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3565,13 +3565,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3581,22 +3581,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>69.03007930894724</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>91.44497723232989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
@@ -3641,16 +3641,16 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3745,19 +3745,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>9.234466016111835</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3784,16 +3784,16 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>190.3453970742849</v>
       </c>
     </row>
     <row r="42">
@@ -3818,31 +3818,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>45.7693770721695</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3872,13 +3872,13 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>150.2142914581905</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3991,50 +3991,50 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H44" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>218.2545356023572</v>
       </c>
     </row>
     <row r="45">
@@ -4055,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>10.9492201923453</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -4067,7 +4067,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4076,10 +4076,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4118,13 +4118,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>71.21538793874659</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>95.85238145955219</v>
+        <v>92.8068625444412</v>
       </c>
       <c r="C2" t="n">
-        <v>95.85238145955219</v>
+        <v>92.8068625444412</v>
       </c>
       <c r="D2" t="n">
-        <v>95.85238145955219</v>
+        <v>92.8068625444412</v>
       </c>
       <c r="E2" t="n">
-        <v>95.85238145955219</v>
+        <v>92.8068625444412</v>
       </c>
       <c r="F2" t="n">
-        <v>88.90688071034872</v>
+        <v>85.86136179523773</v>
       </c>
       <c r="G2" t="n">
-        <v>58.33406192680582</v>
+        <v>70.40405117388919</v>
       </c>
       <c r="H2" t="n">
-        <v>58.33406192680582</v>
+        <v>70.40405117388919</v>
       </c>
       <c r="I2" t="n">
-        <v>4.281002320795979</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="J2" t="n">
-        <v>4.281002320795979</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K2" t="n">
-        <v>57.25840604064621</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="L2" t="n">
         <v>110.2358097604965</v>
       </c>
       <c r="M2" t="n">
-        <v>163.2132134803467</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="N2" t="n">
-        <v>214.050116039799</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="O2" t="n">
-        <v>214.050116039799</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="P2" t="n">
         <v>214.050116039799</v>
       </c>
       <c r="Q2" t="n">
-        <v>203.9585006715719</v>
+        <v>214.050116039799</v>
       </c>
       <c r="R2" t="n">
-        <v>203.9585006715719</v>
+        <v>214.050116039799</v>
       </c>
       <c r="S2" t="n">
-        <v>149.905441065562</v>
+        <v>214.050116039799</v>
       </c>
       <c r="T2" t="n">
-        <v>95.85238145955219</v>
+        <v>214.050116039799</v>
       </c>
       <c r="U2" t="n">
-        <v>95.85238145955219</v>
+        <v>214.050116039799</v>
       </c>
       <c r="V2" t="n">
-        <v>95.85238145955219</v>
+        <v>214.050116039799</v>
       </c>
       <c r="W2" t="n">
-        <v>95.85238145955219</v>
+        <v>214.050116039799</v>
       </c>
       <c r="X2" t="n">
-        <v>95.85238145955219</v>
+        <v>200.9129817564609</v>
       </c>
       <c r="Y2" t="n">
-        <v>95.85238145955219</v>
+        <v>146.859922150451</v>
       </c>
     </row>
     <row r="3">
@@ -4385,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>105.9439968277793</v>
+        <v>113.1412541856014</v>
       </c>
       <c r="C3" t="n">
-        <v>105.9439968277793</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="D3" t="n">
-        <v>105.9439968277793</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="E3" t="n">
-        <v>105.9439968277793</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="F3" t="n">
-        <v>105.9439968277793</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="G3" t="n">
-        <v>59.08819457959153</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="H3" t="n">
-        <v>5.035134973581693</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="I3" t="n">
-        <v>5.035134973581693</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="J3" t="n">
-        <v>4.281002320795979</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K3" t="n">
-        <v>57.25840604064621</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L3" t="n">
-        <v>110.2358097604965</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="M3" t="n">
-        <v>110.2358097604965</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="N3" t="n">
-        <v>110.2358097604965</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="O3" t="n">
-        <v>110.2358097604965</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="P3" t="n">
         <v>161.0727123199487</v>
@@ -4433,28 +4433,28 @@
         <v>214.050116039799</v>
       </c>
       <c r="R3" t="n">
-        <v>159.9970564337891</v>
+        <v>214.050116039799</v>
       </c>
       <c r="S3" t="n">
-        <v>105.9439968277793</v>
+        <v>214.050116039799</v>
       </c>
       <c r="T3" t="n">
-        <v>105.9439968277793</v>
+        <v>214.050116039799</v>
       </c>
       <c r="U3" t="n">
-        <v>105.9439968277793</v>
+        <v>214.050116039799</v>
       </c>
       <c r="V3" t="n">
-        <v>105.9439968277793</v>
+        <v>214.050116039799</v>
       </c>
       <c r="W3" t="n">
-        <v>105.9439968277793</v>
+        <v>214.050116039799</v>
       </c>
       <c r="X3" t="n">
-        <v>105.9439968277793</v>
+        <v>167.1943137916113</v>
       </c>
       <c r="Y3" t="n">
-        <v>105.9439968277793</v>
+        <v>113.1412541856014</v>
       </c>
     </row>
     <row r="4">
@@ -4464,34 +4464,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>82.01130316959578</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="C4" t="n">
-        <v>82.01130316959578</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="D4" t="n">
-        <v>82.01130316959578</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="E4" t="n">
-        <v>82.01130316959578</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="F4" t="n">
-        <v>82.01130316959578</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="G4" t="n">
-        <v>27.95824356358594</v>
+        <v>84.76023320505688</v>
       </c>
       <c r="H4" t="n">
-        <v>27.95824356358594</v>
+        <v>30.70717359904702</v>
       </c>
       <c r="I4" t="n">
-        <v>4.281002320795979</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J4" t="n">
-        <v>4.281002320795979</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K4" t="n">
-        <v>4.281002320795979</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L4" t="n">
         <v>31.59512732850896</v>
@@ -4506,34 +4506,34 @@
         <v>138.8132928110667</v>
       </c>
       <c r="P4" t="n">
-        <v>136.0643627756056</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="Q4" t="n">
-        <v>136.0643627756056</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="R4" t="n">
-        <v>136.0643627756056</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="S4" t="n">
-        <v>136.0643627756056</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="T4" t="n">
-        <v>136.0643627756056</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="U4" t="n">
-        <v>136.0643627756056</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="V4" t="n">
-        <v>82.01130316959578</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="W4" t="n">
-        <v>82.01130316959578</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="X4" t="n">
-        <v>82.01130316959578</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="Y4" t="n">
-        <v>82.01130316959578</v>
+        <v>138.8132928110667</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>559.1338160830064</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="C5" t="n">
-        <v>559.1338160830064</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="D5" t="n">
-        <v>559.1338160830064</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="E5" t="n">
-        <v>559.1338160830064</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="F5" t="n">
-        <v>518.2486856454962</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G5" t="n">
-        <v>274.7999090013961</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4597,22 +4597,22 @@
         <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>802.5825927271064</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U5" t="n">
-        <v>802.5825927271064</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V5" t="n">
-        <v>802.5825927271064</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="W5" t="n">
-        <v>802.5825927271064</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="X5" t="n">
-        <v>802.5825927271064</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="Y5" t="n">
-        <v>559.1338160830064</v>
+        <v>333.7844730889342</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>511.3692755768984</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C6" t="n">
-        <v>511.3692755768984</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D6" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E6" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4655,7 +4655,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N6" t="n">
         <v>725.4530095217538</v>
@@ -4670,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>719.1295743418523</v>
+        <v>778.3154410346802</v>
       </c>
       <c r="U6" t="n">
-        <v>719.1295743418523</v>
+        <v>778.3154410346802</v>
       </c>
       <c r="V6" t="n">
-        <v>719.1295743418523</v>
+        <v>778.3154410346802</v>
       </c>
       <c r="W6" t="n">
-        <v>719.1295743418523</v>
+        <v>778.3154410346802</v>
       </c>
       <c r="X6" t="n">
-        <v>719.1295743418523</v>
+        <v>570.4639408291474</v>
       </c>
       <c r="Y6" t="n">
-        <v>511.3692755768984</v>
+        <v>362.7036420641935</v>
       </c>
     </row>
     <row r="7">
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
         <v>19.28114311021272</v>
@@ -4752,25 +4752,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>765.0847836638613</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="C8" t="n">
-        <v>765.0847836638613</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="D8" t="n">
-        <v>765.0847836638613</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="E8" t="n">
-        <v>521.6360070197613</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="F8" t="n">
-        <v>278.1872303756613</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G8" t="n">
-        <v>262.7299197543128</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4828,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U8" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V8" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W8" t="n">
-        <v>765.0847836638613</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X8" t="n">
-        <v>765.0847836638613</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y8" t="n">
-        <v>765.0847836638613</v>
+        <v>591.4512093066566</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>461.2466632505798</v>
+        <v>582.8795121963512</v>
       </c>
       <c r="C9" t="n">
-        <v>461.2466632505798</v>
+        <v>408.4264829152243</v>
       </c>
       <c r="D9" t="n">
-        <v>461.2466632505798</v>
+        <v>408.4264829152243</v>
       </c>
       <c r="E9" t="n">
-        <v>461.2466632505798</v>
+        <v>408.4264829152243</v>
       </c>
       <c r="F9" t="n">
-        <v>314.7121052774648</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G9" t="n">
-        <v>175.9812798600803</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4889,46 +4889,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>65.60123993063803</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>909.0960185696777</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T9" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U9" t="n">
-        <v>461.2466632505798</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V9" t="n">
-        <v>461.2466632505798</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W9" t="n">
-        <v>461.2466632505798</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X9" t="n">
-        <v>461.2466632505798</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="Y9" t="n">
-        <v>461.2466632505798</v>
+        <v>582.8795121963512</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4992,22 +4992,22 @@
         <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C11" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D11" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E11" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F11" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G11" t="n">
         <v>19.28114311021272</v>
@@ -5074,19 +5074,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U11" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V11" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W11" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X11" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y11" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>168.215552771464</v>
+        <v>605.0715884066004</v>
       </c>
       <c r="C12" t="n">
-        <v>168.215552771464</v>
+        <v>430.6185591254734</v>
       </c>
       <c r="D12" t="n">
-        <v>19.28114311021272</v>
+        <v>430.6185591254734</v>
       </c>
       <c r="E12" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="F12" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G12" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H12" t="n">
         <v>19.28114311021272</v>
@@ -5123,19 +5123,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M12" t="n">
-        <v>234.810827406191</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N12" t="n">
-        <v>473.4149733950735</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O12" t="n">
-        <v>712.019119383956</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P12" t="n">
         <v>894.6625969973069</v>
@@ -5144,28 +5144,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>487.2836868729568</v>
+        <v>812.9230886121333</v>
       </c>
       <c r="U12" t="n">
-        <v>376.0670529769968</v>
+        <v>812.9230886121333</v>
       </c>
       <c r="V12" t="n">
-        <v>376.0670529769968</v>
+        <v>812.9230886121333</v>
       </c>
       <c r="W12" t="n">
-        <v>376.0670529769968</v>
+        <v>812.9230886121333</v>
       </c>
       <c r="X12" t="n">
-        <v>168.215552771464</v>
+        <v>605.0715884066004</v>
       </c>
       <c r="Y12" t="n">
-        <v>168.215552771464</v>
+        <v>605.0715884066004</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
         <v>19.28114311021272</v>
@@ -5223,28 +5223,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>19.28114311021272</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C14" t="n">
-        <v>19.28114311021272</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="D14" t="n">
-        <v>19.28114311021272</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="E14" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F14" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G14" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H14" t="n">
         <v>19.28114311021272</v>
@@ -5299,31 +5299,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>942.6594228129348</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S14" t="n">
-        <v>731.528039392485</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T14" t="n">
-        <v>506.1786963984129</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U14" t="n">
-        <v>262.7299197543128</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V14" t="n">
-        <v>19.28114311021272</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W14" t="n">
-        <v>19.28114311021272</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X14" t="n">
-        <v>19.28114311021272</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y14" t="n">
-        <v>19.28114311021272</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>19.28114311021272</v>
+        <v>467.0948956420016</v>
       </c>
       <c r="C15" t="n">
-        <v>19.28114311021272</v>
+        <v>292.6418663608746</v>
       </c>
       <c r="D15" t="n">
-        <v>19.28114311021272</v>
+        <v>292.6418663608746</v>
       </c>
       <c r="E15" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="F15" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G15" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N15" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O15" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P15" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T15" t="n">
-        <v>862.8876260635219</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U15" t="n">
-        <v>862.8876260635219</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V15" t="n">
-        <v>627.7355178317791</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W15" t="n">
-        <v>603.1082791007675</v>
+        <v>467.0948956420016</v>
       </c>
       <c r="X15" t="n">
-        <v>395.2567788952347</v>
+        <v>467.0948956420016</v>
       </c>
       <c r="Y15" t="n">
-        <v>187.4964801302808</v>
+        <v>467.0948956420016</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5460,28 +5460,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D17" t="n">
         <v>19.28114311021272</v>
@@ -5539,28 +5539,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>942.6594228129348</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>731.528039392485</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V17" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W17" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="X17" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>109.5807722530562</v>
+        <v>279.1848366757484</v>
       </c>
       <c r="C18" t="n">
-        <v>109.5807722530562</v>
+        <v>279.1848366757484</v>
       </c>
       <c r="D18" t="n">
-        <v>109.5807722530562</v>
+        <v>279.1848366757484</v>
       </c>
       <c r="E18" t="n">
-        <v>109.5807722530562</v>
+        <v>279.1848366757484</v>
       </c>
       <c r="F18" t="n">
-        <v>109.5807722530562</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G18" t="n">
-        <v>109.5807722530562</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H18" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
         <v>19.28114311021272</v>
@@ -5597,19 +5597,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>249.2442489785619</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P18" t="n">
         <v>894.6625969973069</v>
@@ -5618,28 +5618,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V18" t="n">
-        <v>259.0600686093459</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="W18" t="n">
-        <v>109.5807722530562</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="X18" t="n">
-        <v>109.5807722530562</v>
+        <v>447.4001736958165</v>
       </c>
       <c r="Y18" t="n">
-        <v>109.5807722530562</v>
+        <v>447.4001736958165</v>
       </c>
     </row>
     <row r="19">
@@ -5697,13 +5697,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
         <v>19.28114311021272</v>
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>233.7108255783361</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C20" t="n">
-        <v>233.7108255783361</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I20" t="n">
         <v>19.28114311021272</v>
@@ -5788,13 +5788,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W20" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X20" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y20" t="n">
         <v>477.1596022224361</v>
@@ -5807,40 +5807,40 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>360.2295980564601</v>
+        <v>345.004439675971</v>
       </c>
       <c r="C21" t="n">
-        <v>185.7765687753331</v>
+        <v>345.004439675971</v>
       </c>
       <c r="D21" t="n">
-        <v>185.7765687753331</v>
+        <v>345.004439675971</v>
       </c>
       <c r="E21" t="n">
-        <v>185.7765687753331</v>
+        <v>345.004439675971</v>
       </c>
       <c r="F21" t="n">
-        <v>185.7765687753331</v>
+        <v>198.469881702856</v>
       </c>
       <c r="G21" t="n">
-        <v>185.7765687753331</v>
+        <v>198.469881702856</v>
       </c>
       <c r="H21" t="n">
-        <v>110.334904905842</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>486.8488635328713</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
         <v>725.4530095217538</v>
@@ -5864,19 +5864,19 @@
         <v>588.4532163200711</v>
       </c>
       <c r="U21" t="n">
-        <v>360.2295980564601</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V21" t="n">
-        <v>360.2295980564601</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W21" t="n">
-        <v>360.2295980564601</v>
+        <v>345.004439675971</v>
       </c>
       <c r="X21" t="n">
-        <v>360.2295980564601</v>
+        <v>345.004439675971</v>
       </c>
       <c r="Y21" t="n">
-        <v>360.2295980564601</v>
+        <v>345.004439675971</v>
       </c>
     </row>
     <row r="22">
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
         <v>19.28114311021272</v>
@@ -5931,31 +5931,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>495.259035872464</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="C23" t="n">
-        <v>251.810259228364</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="D23" t="n">
-        <v>251.810259228364</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="E23" t="n">
-        <v>251.810259228364</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="F23" t="n">
-        <v>251.810259228364</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="G23" t="n">
-        <v>251.810259228364</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6016,25 +6016,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T23" t="n">
-        <v>738.7078125165641</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U23" t="n">
-        <v>738.7078125165641</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V23" t="n">
-        <v>738.7078125165641</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W23" t="n">
-        <v>738.7078125165641</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="X23" t="n">
-        <v>738.7078125165641</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="Y23" t="n">
-        <v>738.7078125165641</v>
+        <v>752.9257720901863</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>248.3115976704407</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>248.3115976704407</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>248.3115976704407</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>248.3115976704407</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>248.3115976704407</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
         <v>19.28114311021272</v>
@@ -6077,10 +6077,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N24" t="n">
-        <v>781.4136778972854</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
         <v>781.4136778972854</v>
@@ -6095,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>901.7984691613076</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>699.6118745200736</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>699.6118745200736</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V24" t="n">
-        <v>699.6118745200736</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W24" t="n">
-        <v>456.1630978759736</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X24" t="n">
-        <v>248.3115976704407</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y24" t="n">
-        <v>248.3115976704407</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6186,7 +6186,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
         <v>19.28114311021272</v>
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C26" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V26" t="n">
-        <v>720.6083788665362</v>
+        <v>467.067986854209</v>
       </c>
       <c r="W26" t="n">
-        <v>477.1596022224361</v>
+        <v>467.067986854209</v>
       </c>
       <c r="X26" t="n">
-        <v>233.7108255783361</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y26" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.28114311021272</v>
+        <v>416.1069178844125</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>416.1069178844125</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>416.1069178844125</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>256.869462878957</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L27" t="n">
-        <v>144.6387031680501</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M27" t="n">
-        <v>234.810827406191</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V27" t="n">
-        <v>23.90796037760316</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W27" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X27" t="n">
-        <v>19.28114311021272</v>
+        <v>792.0825536694344</v>
       </c>
       <c r="Y27" t="n">
-        <v>19.28114311021272</v>
+        <v>584.3222549044806</v>
       </c>
     </row>
     <row r="28">
@@ -6360,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
         <v>19.28114311021272</v>
@@ -6411,25 +6411,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6448,13 +6448,13 @@
         <v>262.7299197543128</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>591.4512093066566</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T29" t="n">
-        <v>366.1018663125844</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U29" t="n">
-        <v>262.7299197543128</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="V29" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W29" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X29" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y29" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="30">
@@ -6557,28 +6557,28 @@
         <v>496.4894350879777</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>913.4938269565423</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>913.4938269565423</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>913.4938269565423</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U30" t="n">
-        <v>913.4938269565423</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V30" t="n">
-        <v>678.3417187247995</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W30" t="n">
         <v>434.8929420806995</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>946.3215033461793</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>559.1338160830064</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C32" t="n">
-        <v>559.1338160830064</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D32" t="n">
-        <v>559.1338160830064</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E32" t="n">
-        <v>559.1338160830064</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F32" t="n">
-        <v>315.6850394389064</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G32" t="n">
-        <v>315.6850394389064</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H32" t="n">
-        <v>72.23626279480629</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6724,28 +6724,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>802.5825927271064</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U32" t="n">
-        <v>802.5825927271064</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="V32" t="n">
-        <v>802.5825927271064</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W32" t="n">
-        <v>802.5825927271064</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X32" t="n">
-        <v>802.5825927271064</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y32" t="n">
-        <v>802.5825927271064</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>193.7341723913397</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G33" t="n">
         <v>19.28114311021272</v>
@@ -6785,16 +6785,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>65.60123993063803</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
         <v>964.0571555106362</v>
@@ -6809,22 +6809,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T33" t="n">
-        <v>569.7098081763618</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U33" t="n">
-        <v>569.7098081763618</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V33" t="n">
-        <v>569.7098081763618</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W33" t="n">
-        <v>569.7098081763618</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X33" t="n">
-        <v>569.7098081763618</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="Y33" t="n">
-        <v>361.9495094114078</v>
+        <v>463.7839815061678</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>877.0247885897328</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>569.2254314512334</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C35" t="n">
-        <v>569.2254314512334</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D35" t="n">
-        <v>569.2254314512334</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E35" t="n">
-        <v>325.7766548071333</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F35" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6961,28 +6961,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>812.6742080953335</v>
+        <v>960.7588564629629</v>
       </c>
       <c r="S35" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T35" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U35" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V35" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W35" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X35" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y35" t="n">
-        <v>569.2254314512334</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="36">
@@ -6992,13 +6992,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>502.6601697108322</v>
+        <v>317.2409336147255</v>
       </c>
       <c r="C36" t="n">
-        <v>328.2071404297052</v>
+        <v>142.7879043335984</v>
       </c>
       <c r="D36" t="n">
-        <v>179.2727307684539</v>
+        <v>142.7879043335984</v>
       </c>
       <c r="E36" t="n">
         <v>20.03527576299844</v>
@@ -7022,19 +7022,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>178.8501590306595</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>417.4543050195419</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
-        <v>656.0584510084244</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7052,16 +7052,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>953.960446560465</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W36" t="n">
-        <v>710.511669916365</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X36" t="n">
-        <v>502.6601697108322</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="Y36" t="n">
-        <v>502.6601697108322</v>
+        <v>485.4562706347935</v>
       </c>
     </row>
     <row r="37">
@@ -7071,10 +7071,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D37" t="n">
         <v>19.28114311021272</v>
@@ -7119,28 +7119,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>231.8830517671884</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="C38" t="n">
-        <v>231.8830517671884</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="D38" t="n">
-        <v>231.8830517671884</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="E38" t="n">
-        <v>231.8830517671884</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="F38" t="n">
-        <v>231.8830517671884</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="G38" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H38" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>718.7806050553886</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T38" t="n">
-        <v>718.7806050553886</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U38" t="n">
-        <v>718.7806050553886</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="V38" t="n">
-        <v>718.7806050553886</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="W38" t="n">
-        <v>475.3318284112885</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="X38" t="n">
-        <v>475.3318284112885</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="Y38" t="n">
-        <v>231.8830517671884</v>
+        <v>527.5764290961142</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>286.10283626238</v>
+        <v>375.0280119908184</v>
       </c>
       <c r="C39" t="n">
-        <v>111.649806981253</v>
+        <v>375.0280119908184</v>
       </c>
       <c r="D39" t="n">
-        <v>111.649806981253</v>
+        <v>375.0280119908184</v>
       </c>
       <c r="E39" t="n">
-        <v>111.649806981253</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="F39" t="n">
-        <v>111.649806981253</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>19.28114311021272</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M39" t="n">
-        <v>257.8852890990952</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N39" t="n">
-        <v>496.4894350879777</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O39" t="n">
-        <v>735.0935810768601</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
-        <v>917.7370586902109</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T39" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U39" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V39" t="n">
-        <v>454.3181732824481</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W39" t="n">
-        <v>454.3181732824481</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X39" t="n">
-        <v>454.3181732824481</v>
+        <v>582.7883107557723</v>
       </c>
       <c r="Y39" t="n">
-        <v>454.3181732824481</v>
+        <v>375.0280119908184</v>
       </c>
     </row>
     <row r="40">
@@ -7359,13 +7359,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
         <v>19.28114311021272</v>
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>284.1276524520142</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="C41" t="n">
-        <v>284.1276524520142</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="D41" t="n">
-        <v>284.1276524520142</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E41" t="n">
-        <v>284.1276524520142</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F41" t="n">
         <v>274.7999090013961</v>
       </c>
       <c r="G41" t="n">
-        <v>274.7999090013961</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H41" t="n">
         <v>31.35113235729608</v>
@@ -7432,31 +7432,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S41" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T41" t="n">
-        <v>527.5764290961142</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U41" t="n">
-        <v>527.5764290961142</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V41" t="n">
-        <v>527.5764290961142</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W41" t="n">
-        <v>527.5764290961142</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X41" t="n">
-        <v>284.1276524520142</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y41" t="n">
-        <v>284.1276524520142</v>
+        <v>761.6974622895962</v>
       </c>
     </row>
     <row r="42">
@@ -7466,40 +7466,40 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>694.6722890434539</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="C42" t="n">
-        <v>520.2192597623269</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="D42" t="n">
-        <v>371.2848501010757</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="E42" t="n">
-        <v>212.0473950956202</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F42" t="n">
-        <v>65.51283712250515</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G42" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H42" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>486.8488635328713</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N42" t="n">
         <v>725.4530095217538</v>
@@ -7520,22 +7520,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="T42" t="n">
-        <v>862.8876260635219</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U42" t="n">
-        <v>862.8876260635219</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V42" t="n">
-        <v>862.8876260635219</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="W42" t="n">
-        <v>862.8876260635219</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="X42" t="n">
-        <v>862.8876260635219</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="Y42" t="n">
-        <v>862.8876260635219</v>
+        <v>508.9694238887622</v>
       </c>
     </row>
     <row r="43">
@@ -7593,13 +7593,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U43" t="n">
         <v>19.28114311021272</v>
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>749.627473042513</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C44" t="n">
-        <v>749.627473042513</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D44" t="n">
-        <v>749.627473042513</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E44" t="n">
-        <v>749.627473042513</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F44" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G44" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7678,22 +7678,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T44" t="n">
-        <v>749.627473042513</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U44" t="n">
-        <v>749.627473042513</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V44" t="n">
-        <v>749.627473042513</v>
+        <v>495.259035872464</v>
       </c>
       <c r="W44" t="n">
-        <v>749.627473042513</v>
+        <v>495.259035872464</v>
       </c>
       <c r="X44" t="n">
-        <v>749.627473042513</v>
+        <v>495.259035872464</v>
       </c>
       <c r="Y44" t="n">
-        <v>749.627473042513</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="45">
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>440.8221433693402</v>
+        <v>678.4104631380844</v>
       </c>
       <c r="C45" t="n">
-        <v>440.8221433693402</v>
+        <v>678.4104631380844</v>
       </c>
       <c r="D45" t="n">
-        <v>291.8877337080889</v>
+        <v>529.4760534768332</v>
       </c>
       <c r="E45" t="n">
-        <v>132.6502787026334</v>
+        <v>370.2385984713777</v>
       </c>
       <c r="F45" t="n">
-        <v>132.6502787026334</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G45" t="n">
-        <v>132.6502787026334</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H45" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
@@ -7733,46 +7733,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>257.8852890990952</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N45" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O45" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P45" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S45" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T45" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U45" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V45" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W45" t="n">
-        <v>720.6083788665362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X45" t="n">
-        <v>512.7568786610034</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y45" t="n">
-        <v>440.8221433693402</v>
+        <v>689.4702815141908</v>
       </c>
     </row>
     <row r="46">
@@ -7830,19 +7830,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W46" t="n">
         <v>19.28114311021272</v>
@@ -7987,16 +7987,16 @@
         <v>289.278943979937</v>
       </c>
       <c r="M2" t="n">
-        <v>283.8587622372225</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>280.7634702223003</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>230.0982114216867</v>
+        <v>281.4486180473961</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>284.7455247652193</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>191.3539679843087</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
         <v>192.0669087898239</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>193.4844405477277</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>184.8542410932831</v>
       </c>
       <c r="O3" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>185.3248140400396</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>193.4943030959712</v>
+        <v>193.4943030959713</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8303,10 +8303,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N6" t="n">
-        <v>244.7225752110828</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8455,7 +8455,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8537,13 +8537,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>195.4980740263837</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,13 +8771,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
         <v>372.3560009609923</v>
@@ -8786,7 +8786,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>168.5314335381781</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9008,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>372.3560009609923</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O15" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9245,22 +9245,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9482,16 +9482,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>255.5148970497678</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9725,13 +9725,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>301.2485028631349</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9956,16 +9956,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10205,13 +10205,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>360.302996258564</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10433,19 +10433,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10670,7 +10670,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>299.7352039419416</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
@@ -10679,13 +10679,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10825,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10904,10 +10904,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
@@ -10916,13 +10916,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>186.7697506723097</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11062,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11141,16 +11141,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>372.3560009609923</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
@@ -11302,7 +11302,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11381,13 +11381,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23263,16 +23263,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>203.0173518716929</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
@@ -23314,19 +23314,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="12">
@@ -23339,22 +23339,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
@@ -23384,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>50.54200246530368</v>
       </c>
       <c r="U12" t="n">
-        <v>115.8369145239744</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23436,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23503,16 +23503,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>329.5048015845142</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
@@ -23539,22 +23539,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>128.6853625704253</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="15">
@@ -23573,16 +23573,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -23591,13 +23591,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23621,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>227.3140168172181</v>
+        <v>131.5502456896308</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>162.2736845391249</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23676,10 +23676,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23737,7 +23737,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -23779,13 +23779,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>128.6853625704253</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
         <v>10.33136403017744</v>
@@ -23794,7 +23794,7 @@
         <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23810,7 +23810,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
@@ -23822,16 +23822,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -23858,13 +23858,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23873,10 +23873,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>103.7104797681929</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>91.90712639161852</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23937,7 +23937,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23946,7 +23946,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>142.3976559772408</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23983,13 +23983,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>413.4932414420988</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -24028,7 +24028,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
         <v>108.226679839754</v>
@@ -24037,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24050,7 +24050,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24059,19 +24059,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>37.54819700570022</v>
+        <v>24.23522588119472</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24104,13 +24104,13 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -24144,7 +24144,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H22" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I22" t="n">
         <v>155.4504749272583</v>
@@ -24171,7 +24171,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>177.2933913771695</v>
@@ -24192,7 +24192,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>178.6847310553635</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>124.2586028933485</v>
@@ -24220,13 +24220,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
-        <v>109.2709771587974</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>207.2105735132092</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24256,10 +24256,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
@@ -24299,13 +24299,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -24335,16 +24335,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>110.0470716180025</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>10.68069428326055</v>
@@ -24353,7 +24353,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24426,10 +24426,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X25" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24448,10 +24448,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>164.3376445463983</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24466,7 +24466,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24487,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24499,19 +24499,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>173.9525530126115</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24530,10 +24530,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>137.3435171632106</v>
@@ -24542,10 +24542,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24569,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>35.51812938068772</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24609,7 +24609,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24651,7 +24651,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24688,7 +24688,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -24697,7 +24697,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24724,10 +24724,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -24736,10 +24736,10 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>149.0074258151476</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>306.5685030994106</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24806,22 +24806,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>50.10013888409016</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>153.9285226410787</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -24858,13 +24858,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I31" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24928,7 +24928,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
@@ -24937,10 +24937,10 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
-        <v>158.0503210826583</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24964,16 +24964,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>43.08181652002401</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -24995,22 +24995,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
@@ -25049,7 +25049,7 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>81.60186009037089</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
@@ -25064,7 +25064,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>182.4179874641832</v>
       </c>
     </row>
     <row r="34">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25119,10 +25119,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>130.2684670434959</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25162,10 +25162,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>356.4090673940316</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G35" t="n">
         <v>174.288448637476</v>
@@ -25177,7 +25177,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25201,10 +25201,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>146.6038018839531</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>223.0958495641314</v>
@@ -25222,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25232,16 +25232,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>36.11997817050694</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25292,13 +25292,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>222.8048452887558</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25317,7 +25317,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25359,7 +25359,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25402,16 +25402,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>394.1189821444107</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -25435,16 +25435,16 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>126.0561017912447</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
@@ -25453,13 +25453,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25469,22 +25469,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>88.61500114645371</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>45.89853993088074</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
@@ -25493,7 +25493,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -25529,16 +25529,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25599,7 +25599,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T40" t="n">
         <v>227.9455894282815</v>
@@ -25608,7 +25608,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25633,19 +25633,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>397.6415797255996</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H41" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25672,16 +25672,16 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
@@ -25693,10 +25693,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>195.8925415817687</v>
       </c>
     </row>
     <row r="42">
@@ -25706,31 +25706,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>91.57414009104113</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25760,13 +25760,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>82.58629569123474</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
@@ -25833,7 +25833,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25842,7 +25842,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25879,16 +25879,16 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G44" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25918,10 +25918,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>10.81046392068936</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25933,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>167.9834030536964</v>
       </c>
     </row>
     <row r="45">
@@ -25943,7 +25943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>155.583963457522</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -25955,7 +25955,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>137.3435171632106</v>
@@ -25964,10 +25964,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25991,10 +25991,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
@@ -26006,13 +26006,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>134.4673078385578</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26070,7 +26070,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S46" t="n">
         <v>224.0165980369723</v>
@@ -26085,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>390775.3051739903</v>
+        <v>390775.3051739904</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>390775.3051739904</v>
+        <v>390775.3051739903</v>
       </c>
     </row>
     <row r="9">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>390775.3051739903</v>
+        <v>390775.3051739904</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>390775.3051739903</v>
+        <v>390775.3051739904</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>390775.3051739903</v>
+        <v>390775.3051739904</v>
       </c>
     </row>
   </sheetData>
@@ -26319,16 +26319,16 @@
         <v>574729.2389049984</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049983</v>
+        <v>574729.2389049984</v>
       </c>
       <c r="E2" t="n">
-        <v>232624.9415438653</v>
+        <v>232624.9415438654</v>
       </c>
       <c r="F2" t="n">
         <v>232624.9415438654</v>
       </c>
       <c r="G2" t="n">
-        <v>232624.9415438654</v>
+        <v>232624.9415438653</v>
       </c>
       <c r="H2" t="n">
         <v>232624.9415438653</v>
@@ -26337,16 +26337,16 @@
         <v>232624.9415438654</v>
       </c>
       <c r="J2" t="n">
+        <v>232624.9415438654</v>
+      </c>
+      <c r="K2" t="n">
         <v>232624.9415438653</v>
       </c>
-      <c r="K2" t="n">
-        <v>232624.9415438654</v>
-      </c>
       <c r="L2" t="n">
-        <v>232624.9415438654</v>
+        <v>232624.9415438655</v>
       </c>
       <c r="M2" t="n">
-        <v>232624.9415438655</v>
+        <v>232624.9415438653</v>
       </c>
       <c r="N2" t="n">
         <v>232624.9415438654</v>
@@ -26355,7 +26355,7 @@
         <v>232624.9415438654</v>
       </c>
       <c r="P2" t="n">
-        <v>232624.9415438653</v>
+        <v>232624.9415438655</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17933.27925940138</v>
+        <v>17933.27925940139</v>
       </c>
       <c r="C3" t="n">
-        <v>60576.32218666813</v>
+        <v>60576.32218666811</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26392,7 +26392,7 @@
         <v>14001.23214027929</v>
       </c>
       <c r="K3" t="n">
-        <v>48256.95293363262</v>
+        <v>48256.95293363261</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26527,43 +26527,43 @@
         <v>144908.6949642131</v>
       </c>
       <c r="D6" t="n">
-        <v>205485.0171508811</v>
+        <v>205485.0171508812</v>
       </c>
       <c r="E6" t="n">
-        <v>175953.8474242075</v>
+        <v>163735.8368041671</v>
       </c>
       <c r="F6" t="n">
-        <v>175953.8474242076</v>
+        <v>163735.8368041671</v>
       </c>
       <c r="G6" t="n">
-        <v>175953.8474242075</v>
+        <v>163735.836804167</v>
       </c>
       <c r="H6" t="n">
-        <v>175953.8474242075</v>
+        <v>163735.836804167</v>
       </c>
       <c r="I6" t="n">
-        <v>175953.8474242076</v>
+        <v>163735.8368041671</v>
       </c>
       <c r="J6" t="n">
-        <v>161952.6152839282</v>
+        <v>149734.6046638878</v>
       </c>
       <c r="K6" t="n">
-        <v>127696.894490575</v>
+        <v>115478.8838705344</v>
       </c>
       <c r="L6" t="n">
-        <v>175953.8474242076</v>
+        <v>163735.8368041672</v>
       </c>
       <c r="M6" t="n">
-        <v>175953.8474242076</v>
+        <v>163735.836804167</v>
       </c>
       <c r="N6" t="n">
-        <v>175953.8474242075</v>
+        <v>163735.8368041671</v>
       </c>
       <c r="O6" t="n">
-        <v>175953.8474242076</v>
+        <v>163735.8368041671</v>
       </c>
       <c r="P6" t="n">
-        <v>175953.8474242075</v>
+        <v>163735.8368041672</v>
       </c>
     </row>
   </sheetData>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.51252900994974</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C4" t="n">
         <v>241.0142888776591</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.51252900994974</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C4" t="n">
         <v>187.5017598677093</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>53.51252900994974</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="K4" t="n">
         <v>187.5017598677093</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>53.51252900994974</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="K4" t="n">
         <v>187.5017598677093</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>329.2213126535308</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27393,7 +27393,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>385.0356469194276</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27402,7 +27402,7 @@
         <v>156.9633605604562</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27423,16 +27423,16 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>155.5075405762956</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>169.5833205541816</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -27444,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>356.7253377379643</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>332.7254096461039</v>
       </c>
     </row>
     <row r="3">
@@ -27460,7 +27460,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>119.195969978366</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27472,10 +27472,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>90.95627293750476</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>58.72291522654672</v>
+        <v>58.72291522654671</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -27505,10 +27505,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>46.6453051426934</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>118.1706420938881</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -27523,10 +27523,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>159.3857409777716</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>152.1701667673546</v>
       </c>
     </row>
     <row r="4">
@@ -27554,10 +27554,10 @@
         <v>114.478450348509</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>108.7146434974898</v>
       </c>
       <c r="I4" t="n">
-        <v>132.0100060968962</v>
+        <v>129.2885653617898</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
@@ -27578,7 +27578,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27596,7 +27596,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>198.6251143138783</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27627,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>366.3997666085763</v>
+        <v>333.2456655029306</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -27678,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27694,13 +27694,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27709,13 +27709,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,13 +27742,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>57.84425749036868</v>
+        <v>16.28043136362521</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -27760,7 +27760,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27788,7 +27788,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
         <v>162.2271725074396</v>
@@ -27824,7 +27824,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27861,22 +27861,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>319.1698855250446</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27915,7 +27915,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>162.2490198036507</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27934,7 +27934,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -27943,16 +27943,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>10.14087871238746</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>47.24553303180045</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,7 +27979,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -27988,7 +27988,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -28000,7 +28000,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28031,13 +28031,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>47.2544399028796</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28064,7 +28064,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>97.48006257801995</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>53.51252900994974</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="L2" t="n">
-        <v>53.51252900994974</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="M2" t="n">
-        <v>53.51252900994974</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>51.35040662570935</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>51.35040662570936</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>53.51252900994974</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>53.51252900994974</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>51.35040662570935</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>51.35040662570936</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>53.51252900994974</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34944,7 +34944,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
         <v>207.9338608153932</v>
@@ -35023,10 +35023,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
+        <v>113.3808631277495</v>
+      </c>
+      <c r="N6" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N6" t="n">
-        <v>113.3808631277494</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35257,13 +35257,13 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35272,7 +35272,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35424,7 +35424,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
         <v>90.5657124162131</v>
@@ -35491,13 +35491,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
         <v>241.0142888776591</v>
@@ -35506,7 +35506,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="Q12" t="n">
         <v>70.09551364982758</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="O15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35898,7 +35898,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P17" t="n">
         <v>90.5657124162131</v>
@@ -35965,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>70.09551364982758</v>
@@ -36202,16 +36202,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>113.3808631277495</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36445,13 +36445,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O24" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N24" t="n">
-        <v>169.9067907798016</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
@@ -36676,16 +36676,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36694,7 +36694,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36925,13 +36925,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37153,19 +37153,19 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37390,7 +37390,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>161.1808241620674</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
@@ -37399,13 +37399,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,10 +37624,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
@@ -37636,13 +37636,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>46.78797658628819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37861,16 +37861,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
@@ -38101,13 +38101,13 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>
@@ -38116,7 +38116,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
